--- a/1-data/MSC2 growth_3.xlsx
+++ b/1-data/MSC2 growth_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pate212/GitHub/ebstein_mg/1-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garc286/RStudio/ebstein_mg/1-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3035B793-E148-3241-A4FB-344200930C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D3B0D3-9DA3-F742-A021-E665FDDBDA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate1" sheetId="1" r:id="rId1"/>
@@ -7514,16 +7514,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7932,8 +7932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O341"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:D325"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37:O102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8243,7 +8243,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="H37" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I37" s="10">
         <v>0.316</v>
@@ -8252,10 +8252,10 @@
         <v>0.30199999999999999</v>
       </c>
       <c r="K37" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L37" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M37" s="10">
         <v>0.35299999999999998</v>
@@ -8264,7 +8264,7 @@
         <v>0.308</v>
       </c>
       <c r="O37" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -8284,10 +8284,10 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="G38" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H38" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I38" s="10">
         <v>0.32300000000000001</v>
@@ -8296,10 +8296,10 @@
         <v>0.307</v>
       </c>
       <c r="K38" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L38" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M38" s="10">
         <v>0.35799999999999998</v>
@@ -8308,7 +8308,7 @@
         <v>0.314</v>
       </c>
       <c r="O38" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -8331,7 +8331,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="H39" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I39" s="10">
         <v>0.32400000000000001</v>
@@ -8340,10 +8340,10 @@
         <v>0.316</v>
       </c>
       <c r="K39" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L39" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M39" s="10">
         <v>0.36599999999999999</v>
@@ -8352,7 +8352,7 @@
         <v>0.316</v>
       </c>
       <c r="O39" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
@@ -8372,10 +8372,10 @@
         <v>0.33700000000000002</v>
       </c>
       <c r="G40" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H40" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I40" s="10">
         <v>0.33600000000000002</v>
@@ -8384,10 +8384,10 @@
         <v>0.32100000000000001</v>
       </c>
       <c r="K40" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L40" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M40" s="10">
         <v>0.376</v>
@@ -8416,10 +8416,10 @@
         <v>0.35099999999999998</v>
       </c>
       <c r="G41" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H41" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I41" s="10">
         <v>0.34799999999999998</v>
@@ -8428,10 +8428,10 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="K41" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L41" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M41" s="10">
         <v>0.38900000000000001</v>
@@ -8440,7 +8440,7 @@
         <v>0.33700000000000002</v>
       </c>
       <c r="O41" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
@@ -8460,10 +8460,10 @@
         <v>0.35899999999999999</v>
       </c>
       <c r="G42" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H42" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I42" s="10">
         <v>0.36199999999999999</v>
@@ -8472,10 +8472,10 @@
         <v>0.34599999999999997</v>
       </c>
       <c r="K42" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L42" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M42" s="10">
         <v>0.40300000000000002</v>
@@ -8504,10 +8504,10 @@
         <v>0.372</v>
       </c>
       <c r="G43" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H43" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I43" s="10">
         <v>0.375</v>
@@ -8516,10 +8516,10 @@
         <v>0.35899999999999999</v>
       </c>
       <c r="K43" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L43" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M43" s="10">
         <v>0.41699999999999998</v>
@@ -8548,10 +8548,10 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="G44" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H44" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I44" s="10">
         <v>0.39100000000000001</v>
@@ -8560,10 +8560,10 @@
         <v>0.373</v>
       </c>
       <c r="K44" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L44" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M44" s="10">
         <v>0.434</v>
@@ -8592,10 +8592,10 @@
         <v>0.40200000000000002</v>
       </c>
       <c r="G45" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H45" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I45" s="10">
         <v>0.40799999999999997</v>
@@ -8604,10 +8604,10 @@
         <v>0.38900000000000001</v>
       </c>
       <c r="K45" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L45" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M45" s="10">
         <v>0.45400000000000001</v>
@@ -8616,7 +8616,7 @@
         <v>0.39600000000000002</v>
       </c>
       <c r="O45" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
@@ -8636,10 +8636,10 @@
         <v>0.42</v>
       </c>
       <c r="G46" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H46" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I46" s="10">
         <v>0.42499999999999999</v>
@@ -8648,10 +8648,10 @@
         <v>0.40799999999999997</v>
       </c>
       <c r="K46" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L46" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M46" s="10">
         <v>0.47299999999999998</v>
@@ -8680,10 +8680,10 @@
         <v>0.44</v>
       </c>
       <c r="G47" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H47" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I47" s="10">
         <v>0.44500000000000001</v>
@@ -8692,10 +8692,10 @@
         <v>0.42699999999999999</v>
       </c>
       <c r="K47" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L47" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M47" s="10">
         <v>0.496</v>
@@ -8704,7 +8704,7 @@
         <v>0.435</v>
       </c>
       <c r="O47" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
@@ -8724,10 +8724,10 @@
         <v>0.46300000000000002</v>
       </c>
       <c r="G48" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H48" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I48" s="10">
         <v>0.46800000000000003</v>
@@ -8736,10 +8736,10 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="K48" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L48" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M48" s="10">
         <v>0.52200000000000002</v>
@@ -8748,7 +8748,7 @@
         <v>0.45800000000000002</v>
       </c>
       <c r="O48" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.15">
@@ -8768,10 +8768,10 @@
         <v>0.48599999999999999</v>
       </c>
       <c r="G49" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H49" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I49" s="10">
         <v>0.49299999999999999</v>
@@ -8780,10 +8780,10 @@
         <v>0.47199999999999998</v>
       </c>
       <c r="K49" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L49" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M49" s="10">
         <v>0.55200000000000005</v>
@@ -8792,7 +8792,7 @@
         <v>0.48199999999999998</v>
       </c>
       <c r="O49" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.15">
@@ -8812,10 +8812,10 @@
         <v>0.51100000000000001</v>
       </c>
       <c r="G50" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H50" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I50" s="10">
         <v>0.51400000000000001</v>
@@ -8824,10 +8824,10 @@
         <v>0.49299999999999999</v>
       </c>
       <c r="K50" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L50" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M50" s="10">
         <v>0.57299999999999995</v>
@@ -8856,10 +8856,10 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="G51" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H51" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I51" s="10">
         <v>0.54</v>
@@ -8868,10 +8868,10 @@
         <v>0.51700000000000002</v>
       </c>
       <c r="K51" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L51" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M51" s="10">
         <v>0.60299999999999998</v>
@@ -8900,10 +8900,10 @@
         <v>0.55600000000000005</v>
       </c>
       <c r="G52" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H52" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I52" s="10">
         <v>0.56699999999999995</v>
@@ -8912,10 +8912,10 @@
         <v>0.54200000000000004</v>
       </c>
       <c r="K52" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L52" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M52" s="10">
         <v>0.63</v>
@@ -8944,10 +8944,10 @@
         <v>0.58099999999999996</v>
       </c>
       <c r="G53" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H53" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I53" s="10">
         <v>0.59099999999999997</v>
@@ -8956,10 +8956,10 @@
         <v>0.56799999999999995</v>
       </c>
       <c r="K53" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L53" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M53" s="10">
         <v>0.65700000000000003</v>
@@ -8968,7 +8968,7 @@
         <v>0.57799999999999996</v>
       </c>
       <c r="O53" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.15">
@@ -8988,10 +8988,10 @@
         <v>0.60899999999999999</v>
       </c>
       <c r="G54" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H54" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I54" s="10">
         <v>0.61699999999999999</v>
@@ -9000,10 +9000,10 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="K54" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L54" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M54" s="10">
         <v>0.68600000000000005</v>
@@ -9012,7 +9012,7 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="O54" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.15">
@@ -9032,10 +9032,10 @@
         <v>0.63700000000000001</v>
       </c>
       <c r="G55" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H55" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I55" s="10">
         <v>0.64700000000000002</v>
@@ -9044,10 +9044,10 @@
         <v>0.62</v>
       </c>
       <c r="K55" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L55" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M55" s="10">
         <v>0.72699999999999998</v>
@@ -9056,7 +9056,7 @@
         <v>0.65600000000000003</v>
       </c>
       <c r="O55" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.15">
@@ -9076,10 +9076,10 @@
         <v>0.66800000000000004</v>
       </c>
       <c r="G56" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H56" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I56" s="10">
         <v>0.68</v>
@@ -9088,10 +9088,10 @@
         <v>0.64400000000000002</v>
       </c>
       <c r="K56" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L56" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M56" s="10">
         <v>0.74299999999999999</v>
@@ -9100,7 +9100,7 @@
         <v>0.65800000000000003</v>
       </c>
       <c r="O56" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.15">
@@ -9120,10 +9120,10 @@
         <v>0.7</v>
       </c>
       <c r="G57" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H57" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I57" s="10">
         <v>0.71799999999999997</v>
@@ -9132,10 +9132,10 @@
         <v>0.68400000000000005</v>
       </c>
       <c r="K57" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L57" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M57" s="10">
         <v>0.77300000000000002</v>
@@ -9144,7 +9144,7 @@
         <v>0.68400000000000005</v>
       </c>
       <c r="O57" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.15">
@@ -9164,10 +9164,10 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="G58" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H58" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I58" s="10">
         <v>0.73099999999999998</v>
@@ -9176,10 +9176,10 @@
         <v>0.70199999999999996</v>
       </c>
       <c r="K58" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L58" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M58" s="10">
         <v>0.79800000000000004</v>
@@ -9188,7 +9188,7 @@
         <v>0.71599999999999997</v>
       </c>
       <c r="O58" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.15">
@@ -9208,10 +9208,10 @@
         <v>0.75</v>
       </c>
       <c r="G59" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H59" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I59" s="10">
         <v>0.75900000000000001</v>
@@ -9220,10 +9220,10 @@
         <v>0.72699999999999998</v>
       </c>
       <c r="K59" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L59" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M59" s="10">
         <v>0.82499999999999996</v>
@@ -9232,7 +9232,7 @@
         <v>0.75700000000000001</v>
       </c>
       <c r="O59" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.15">
@@ -9252,10 +9252,10 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="G60" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H60" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I60" s="10">
         <v>0.77700000000000002</v>
@@ -9264,10 +9264,10 @@
         <v>0.75</v>
       </c>
       <c r="K60" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L60" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M60" s="10">
         <v>0.84499999999999997</v>
@@ -9276,7 +9276,7 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="O60" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.15">
@@ -9296,10 +9296,10 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="G61" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H61" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I61" s="10">
         <v>0.79600000000000004</v>
@@ -9308,10 +9308,10 @@
         <v>0.747</v>
       </c>
       <c r="K61" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L61" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M61" s="10">
         <v>0.85499999999999998</v>
@@ -9320,7 +9320,7 @@
         <v>1.153</v>
       </c>
       <c r="O61" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.15">
@@ -9340,10 +9340,10 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="G62" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H62" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I62" s="10">
         <v>0.80200000000000005</v>
@@ -9352,10 +9352,10 @@
         <v>0.83899999999999997</v>
       </c>
       <c r="K62" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L62" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M62" s="10">
         <v>0.86099999999999999</v>
@@ -9364,7 +9364,7 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="O62" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.15">
@@ -9384,10 +9384,10 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="G63" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H63" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I63" s="10">
         <v>0.80300000000000005</v>
@@ -9396,10 +9396,10 @@
         <v>0.76300000000000001</v>
       </c>
       <c r="K63" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L63" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M63" s="10">
         <v>0.86899999999999999</v>
@@ -9428,10 +9428,10 @@
         <v>0.79200000000000004</v>
       </c>
       <c r="G64" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H64" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I64" s="10">
         <v>0.81200000000000006</v>
@@ -9440,10 +9440,10 @@
         <v>0.77</v>
       </c>
       <c r="K64" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L64" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M64" s="10">
         <v>0.876</v>
@@ -9452,7 +9452,7 @@
         <v>0.81299999999999994</v>
       </c>
       <c r="O64" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.15">
@@ -9472,10 +9472,10 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="G65" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H65" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I65" s="10">
         <v>0.84799999999999998</v>
@@ -9484,10 +9484,10 @@
         <v>0.77800000000000002</v>
       </c>
       <c r="K65" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L65" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M65" s="10">
         <v>0.89300000000000002</v>
@@ -9496,7 +9496,7 @@
         <v>0.82</v>
       </c>
       <c r="O65" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.15">
@@ -9516,10 +9516,10 @@
         <v>0.81</v>
       </c>
       <c r="G66" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H66" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I66" s="10">
         <v>0.83099999999999996</v>
@@ -9528,10 +9528,10 @@
         <v>0.80500000000000005</v>
       </c>
       <c r="K66" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L66" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M66" s="10">
         <v>0.88900000000000001</v>
@@ -9540,7 +9540,7 @@
         <v>0.83</v>
       </c>
       <c r="O66" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.15">
@@ -9560,10 +9560,10 @@
         <v>0.85</v>
       </c>
       <c r="G67" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H67" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I67" s="10">
         <v>0.83</v>
@@ -9572,10 +9572,10 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="K67" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L67" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M67" s="10">
         <v>1.0429999999999999</v>
@@ -9584,7 +9584,7 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="O67" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.15">
@@ -9604,10 +9604,10 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="G68" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H68" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I68" s="10">
         <v>0.83299999999999996</v>
@@ -9616,10 +9616,10 @@
         <v>0.8</v>
       </c>
       <c r="K68" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L68" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M68" s="10">
         <v>0.90700000000000003</v>
@@ -9628,7 +9628,7 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="O68" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.15">
@@ -9648,10 +9648,10 @@
         <v>0.82099999999999995</v>
       </c>
       <c r="G69" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H69" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I69" s="10">
         <v>0.83399999999999996</v>
@@ -9660,10 +9660,10 @@
         <v>0.80500000000000005</v>
       </c>
       <c r="K69" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L69" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M69" s="10">
         <v>0.91700000000000004</v>
@@ -9672,7 +9672,7 @@
         <v>0.83899999999999997</v>
       </c>
       <c r="O69" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.15">
@@ -9692,10 +9692,10 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="G70" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H70" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I70" s="10">
         <v>0.89500000000000002</v>
@@ -9704,10 +9704,10 @@
         <v>0.81499999999999995</v>
       </c>
       <c r="K70" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L70" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M70" s="10">
         <v>0.96599999999999997</v>
@@ -9716,7 +9716,7 @@
         <v>0.82899999999999996</v>
       </c>
       <c r="O70" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.15">
@@ -9736,10 +9736,10 @@
         <v>0.84199999999999997</v>
       </c>
       <c r="G71" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H71" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I71" s="10">
         <v>0.85</v>
@@ -9748,10 +9748,10 @@
         <v>0.82099999999999995</v>
       </c>
       <c r="K71" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L71" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M71" s="10">
         <v>0.93</v>
@@ -9760,7 +9760,7 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="O71" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.15">
@@ -9780,10 +9780,10 @@
         <v>0.85099999999999998</v>
       </c>
       <c r="G72" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H72" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I72" s="10">
         <v>0.873</v>
@@ -9792,10 +9792,10 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="K72" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L72" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M72" s="10">
         <v>0.92800000000000005</v>
@@ -9804,7 +9804,7 @@
         <v>0.84</v>
       </c>
       <c r="O72" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.15">
@@ -9824,10 +9824,10 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="G73" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H73" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I73" s="10">
         <v>0.877</v>
@@ -9836,10 +9836,10 @@
         <v>0.83099999999999996</v>
       </c>
       <c r="K73" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L73" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M73" s="10">
         <v>0.92500000000000004</v>
@@ -9848,7 +9848,7 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="O73" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.15">
@@ -9868,10 +9868,10 @@
         <v>0.82699999999999996</v>
       </c>
       <c r="G74" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H74" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I74" s="10">
         <v>0.88900000000000001</v>
@@ -9880,10 +9880,10 @@
         <v>0.81899999999999995</v>
       </c>
       <c r="K74" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L74" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M74" s="10">
         <v>0.91200000000000003</v>
@@ -9892,7 +9892,7 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="O74" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.15">
@@ -9912,10 +9912,10 @@
         <v>0.83</v>
       </c>
       <c r="G75" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H75" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I75" s="10">
         <v>0.86199999999999999</v>
@@ -9924,10 +9924,10 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="K75" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L75" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M75" s="10">
         <v>0.91800000000000004</v>
@@ -9936,7 +9936,7 @@
         <v>0.97299999999999998</v>
       </c>
       <c r="O75" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.15">
@@ -9956,10 +9956,10 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="G76" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H76" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I76" s="10">
         <v>0.94699999999999995</v>
@@ -9968,10 +9968,10 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="K76" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L76" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M76" s="10">
         <v>1.0069999999999999</v>
@@ -9980,7 +9980,7 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="O76" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.15">
@@ -10000,10 +10000,10 @@
         <v>0.83599999999999997</v>
       </c>
       <c r="G77" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H77" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I77" s="10">
         <v>0.91100000000000003</v>
@@ -10012,10 +10012,10 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="K77" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L77" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M77" s="10">
         <v>0.92800000000000005</v>
@@ -10024,7 +10024,7 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="O77" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.15">
@@ -10044,10 +10044,10 @@
         <v>0.84</v>
       </c>
       <c r="G78" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H78" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I78" s="10">
         <v>0.84799999999999998</v>
@@ -10056,10 +10056,10 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="K78" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L78" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M78" s="10">
         <v>0.98699999999999999</v>
@@ -10068,7 +10068,7 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="O78" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.15">
@@ -10088,10 +10088,10 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="G79" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H79" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I79" s="10">
         <v>0.85</v>
@@ -10100,10 +10100,10 @@
         <v>0.81</v>
       </c>
       <c r="K79" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L79" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M79" s="10">
         <v>0.93500000000000005</v>
@@ -10112,7 +10112,7 @@
         <v>0.84699999999999998</v>
       </c>
       <c r="O79" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.15">
@@ -10132,10 +10132,10 @@
         <v>0.84799999999999998</v>
       </c>
       <c r="G80" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H80" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I80" s="10">
         <v>0.86199999999999999</v>
@@ -10144,10 +10144,10 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="K80" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L80" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M80" s="10">
         <v>0.93899999999999995</v>
@@ -10156,7 +10156,7 @@
         <v>0.85699999999999998</v>
       </c>
       <c r="O80" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.15">
@@ -10176,10 +10176,10 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="G81" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H81" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I81" s="10">
         <v>0.85699999999999998</v>
@@ -10188,10 +10188,10 @@
         <v>0.81799999999999995</v>
       </c>
       <c r="K81" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L81" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M81" s="10">
         <v>0.94299999999999995</v>
@@ -10200,7 +10200,7 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="O81" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.15">
@@ -10220,10 +10220,10 @@
         <v>0.85799999999999998</v>
       </c>
       <c r="G82" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H82" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I82" s="10">
         <v>0.86199999999999999</v>
@@ -10232,10 +10232,10 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="K82" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L82" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M82" s="10">
         <v>0.94799999999999995</v>
@@ -10244,7 +10244,7 @@
         <v>0.86799999999999999</v>
       </c>
       <c r="O82" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.15">
@@ -10264,10 +10264,10 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="G83" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H83" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I83" s="10">
         <v>0.86699999999999999</v>
@@ -10276,10 +10276,10 @@
         <v>0.82899999999999996</v>
       </c>
       <c r="K83" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L83" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M83" s="10">
         <v>0.95199999999999996</v>
@@ -10288,7 +10288,7 @@
         <v>0.87</v>
       </c>
       <c r="O83" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.15">
@@ -10308,10 +10308,10 @@
         <v>0.86499999999999999</v>
       </c>
       <c r="G84" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H84" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I84" s="10">
         <v>0.86899999999999999</v>
@@ -10320,10 +10320,10 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="K84" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L84" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M84" s="10">
         <v>0.98</v>
@@ -10332,7 +10332,7 @@
         <v>0.873</v>
       </c>
       <c r="O84" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.15">
@@ -10352,10 +10352,10 @@
         <v>0.86799999999999999</v>
       </c>
       <c r="G85" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H85" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I85" s="10">
         <v>0.871</v>
@@ -10364,10 +10364,10 @@
         <v>0.83699999999999997</v>
       </c>
       <c r="K85" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L85" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M85" s="10">
         <v>0.96199999999999997</v>
@@ -10376,7 +10376,7 @@
         <v>0.877</v>
       </c>
       <c r="O85" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.15">
@@ -10396,10 +10396,10 @@
         <v>0.872</v>
       </c>
       <c r="G86" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H86" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I86" s="10">
         <v>0.874</v>
@@ -10408,10 +10408,10 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="K86" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L86" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M86" s="10">
         <v>0.96399999999999997</v>
@@ -10420,7 +10420,7 @@
         <v>0.879</v>
       </c>
       <c r="O86" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.15">
@@ -10440,10 +10440,10 @@
         <v>0.876</v>
       </c>
       <c r="G87" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H87" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I87" s="10">
         <v>0.88100000000000001</v>
@@ -10452,10 +10452,10 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="K87" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L87" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M87" s="10">
         <v>0.96599999999999997</v>
@@ -10464,7 +10464,7 @@
         <v>0.88100000000000001</v>
       </c>
       <c r="O87" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.15">
@@ -10484,10 +10484,10 @@
         <v>0.879</v>
       </c>
       <c r="G88" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H88" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I88" s="10">
         <v>0.88200000000000001</v>
@@ -10496,10 +10496,10 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="K88" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L88" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M88" s="10">
         <v>0.97</v>
@@ -10508,7 +10508,7 @@
         <v>0.88</v>
       </c>
       <c r="O88" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.15">
@@ -10528,10 +10528,10 @@
         <v>0.88100000000000001</v>
       </c>
       <c r="G89" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H89" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I89" s="10">
         <v>0.88400000000000001</v>
@@ -10540,10 +10540,10 @@
         <v>0.84699999999999998</v>
       </c>
       <c r="K89" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L89" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M89" s="10">
         <v>0.97199999999999998</v>
@@ -10552,7 +10552,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="O89" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.15">
@@ -10572,10 +10572,10 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="G90" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H90" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I90" s="10">
         <v>0.88800000000000001</v>
@@ -10584,10 +10584,10 @@
         <v>0.84799999999999998</v>
       </c>
       <c r="K90" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L90" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M90" s="10">
         <v>0.97499999999999998</v>
@@ -10596,7 +10596,7 @@
         <v>0.88400000000000001</v>
       </c>
       <c r="O90" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.15">
@@ -10616,10 +10616,10 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="G91" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H91" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I91" s="10">
         <v>0.88600000000000001</v>
@@ -10628,10 +10628,10 @@
         <v>0.84899999999999998</v>
       </c>
       <c r="K91" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L91" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M91" s="10">
         <v>0.97799999999999998</v>
@@ -10640,7 +10640,7 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="O91" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.15">
@@ -10660,10 +10660,10 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="G92" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H92" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I92" s="10">
         <v>0.88700000000000001</v>
@@ -10672,10 +10672,10 @@
         <v>0.84899999999999998</v>
       </c>
       <c r="K92" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L92" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M92" s="10">
         <v>1.2210000000000001</v>
@@ -10684,7 +10684,7 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="O92" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.15">
@@ -10704,10 +10704,10 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="G93" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H93" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I93" s="10">
         <v>0.88700000000000001</v>
@@ -10716,10 +10716,10 @@
         <v>0.85</v>
       </c>
       <c r="K93" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L93" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M93" s="10">
         <v>0.98399999999999999</v>
@@ -10728,7 +10728,7 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="O93" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.15">
@@ -10748,10 +10748,10 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="G94" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H94" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I94" s="10">
         <v>0.88700000000000001</v>
@@ -10760,10 +10760,10 @@
         <v>0.85</v>
       </c>
       <c r="K94" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L94" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M94" s="10">
         <v>0.98399999999999999</v>
@@ -10772,7 +10772,7 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="O94" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.15">
@@ -10792,10 +10792,10 @@
         <v>0.88800000000000001</v>
       </c>
       <c r="G95" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H95" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I95" s="10">
         <v>0.88700000000000001</v>
@@ -10804,10 +10804,10 @@
         <v>0.84899999999999998</v>
       </c>
       <c r="K95" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L95" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M95" s="10">
         <v>0.98599999999999999</v>
@@ -10816,7 +10816,7 @@
         <v>0.88800000000000001</v>
       </c>
       <c r="O95" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.15">
@@ -10836,10 +10836,10 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="G96" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H96" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I96" s="10">
         <v>0.88800000000000001</v>
@@ -10848,10 +10848,10 @@
         <v>0.85099999999999998</v>
       </c>
       <c r="K96" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L96" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M96" s="10">
         <v>0.98599999999999999</v>
@@ -10860,7 +10860,7 @@
         <v>0.88800000000000001</v>
       </c>
       <c r="O96" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.15">
@@ -10880,10 +10880,10 @@
         <v>0.88800000000000001</v>
       </c>
       <c r="G97" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H97" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I97" s="10">
         <v>0.88800000000000001</v>
@@ -10892,10 +10892,10 @@
         <v>0.85</v>
       </c>
       <c r="K97" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L97" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M97" s="10">
         <v>0.98699999999999999</v>
@@ -10904,7 +10904,7 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="O97" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.15">
@@ -10924,10 +10924,10 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="G98" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H98" s="10">
-        <v>8.5000000000000006E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I98" s="10">
         <v>0.88800000000000001</v>
@@ -10936,10 +10936,10 @@
         <v>0.85</v>
       </c>
       <c r="K98" s="10">
-        <v>8.5999999999999993E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L98" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M98" s="10">
         <v>0.98599999999999999</v>
@@ -10948,7 +10948,7 @@
         <v>0.88800000000000001</v>
       </c>
       <c r="O98" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.15">
@@ -10968,10 +10968,10 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="G99" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H99" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I99" s="10">
         <v>0.88800000000000001</v>
@@ -10980,10 +10980,10 @@
         <v>0.85</v>
       </c>
       <c r="K99" s="10">
-        <v>8.5999999999999993E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L99" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M99" s="10">
         <v>0.98599999999999999</v>
@@ -10992,7 +10992,7 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="O99" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.15">
@@ -11012,10 +11012,10 @@
         <v>0.89500000000000002</v>
       </c>
       <c r="G100" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H100" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I100" s="10">
         <v>0.88900000000000001</v>
@@ -11024,10 +11024,10 @@
         <v>0.85</v>
       </c>
       <c r="K100" s="10">
-        <v>8.5999999999999993E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L100" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M100" s="10">
         <v>1.046</v>
@@ -11036,7 +11036,7 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="O100" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.15">
@@ -11056,10 +11056,10 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="G101" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H101" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I101" s="10">
         <v>0.88800000000000001</v>
@@ -11068,10 +11068,10 @@
         <v>0.85099999999999998</v>
       </c>
       <c r="K101" s="10">
-        <v>8.5999999999999993E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L101" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M101" s="10">
         <v>0.98699999999999999</v>
@@ -11080,7 +11080,7 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="O101" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.15">
@@ -11100,10 +11100,10 @@
         <v>0.89</v>
       </c>
       <c r="G102" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H102" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I102" s="10">
         <v>0.88800000000000001</v>
@@ -11112,10 +11112,10 @@
         <v>0.85</v>
       </c>
       <c r="K102" s="10">
-        <v>8.5999999999999993E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L102" s="10">
-        <v>8.4000000000000005E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="M102" s="10">
         <v>0.98799999999999999</v>
@@ -11124,7 +11124,7 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="O102" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.15">
@@ -15402,8 +15402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:O341"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:D58"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37:L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15723,7 +15723,7 @@
         <v>0.878</v>
       </c>
       <c r="K37" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="L37" s="25">
         <v>8.1000000000000003E-2</v>
@@ -15767,7 +15767,7 @@
         <v>0.879</v>
       </c>
       <c r="K38" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="L38" s="25">
         <v>8.1000000000000003E-2</v>
@@ -15811,7 +15811,7 @@
         <v>0.88</v>
       </c>
       <c r="K39" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="L39" s="25">
         <v>8.1000000000000003E-2</v>
@@ -15855,7 +15855,7 @@
         <v>0.88</v>
       </c>
       <c r="K40" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="L40" s="25">
         <v>8.1000000000000003E-2</v>
@@ -15899,7 +15899,7 @@
         <v>0.879</v>
       </c>
       <c r="K41" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="L41" s="25">
         <v>8.1000000000000003E-2</v>
@@ -15943,7 +15943,7 @@
         <v>0.88100000000000001</v>
       </c>
       <c r="K42" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="L42" s="25">
         <v>8.1000000000000003E-2</v>
@@ -15975,7 +15975,7 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="G43" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H43" s="25">
         <v>9.0999999999999998E-2</v>
@@ -15987,7 +15987,7 @@
         <v>0.879</v>
       </c>
       <c r="K43" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L43" s="25">
         <v>8.1000000000000003E-2</v>
@@ -16019,7 +16019,7 @@
         <v>0.97899999999999998</v>
       </c>
       <c r="G44" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H44" s="25">
         <v>9.0999999999999998E-2</v>
@@ -16031,7 +16031,7 @@
         <v>0.88</v>
       </c>
       <c r="K44" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L44" s="25">
         <v>8.1000000000000003E-2</v>
@@ -16063,7 +16063,7 @@
         <v>0.98</v>
       </c>
       <c r="G45" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H45" s="25">
         <v>9.1999999999999998E-2</v>
@@ -16075,7 +16075,7 @@
         <v>0.879</v>
       </c>
       <c r="K45" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L45" s="25">
         <v>8.1000000000000003E-2</v>
@@ -16107,7 +16107,7 @@
         <v>0.97899999999999998</v>
       </c>
       <c r="G46" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H46" s="25">
         <v>9.2999999999999999E-2</v>
@@ -16119,7 +16119,7 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="K46" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L46" s="25">
         <v>8.1000000000000003E-2</v>
@@ -16151,7 +16151,7 @@
         <v>0.97899999999999998</v>
       </c>
       <c r="G47" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H47" s="25">
         <v>9.2999999999999999E-2</v>
@@ -16163,7 +16163,7 @@
         <v>0.879</v>
       </c>
       <c r="K47" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L47" s="25">
         <v>8.1000000000000003E-2</v>
@@ -16195,7 +16195,7 @@
         <v>0.97899999999999998</v>
       </c>
       <c r="G48" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H48" s="25">
         <v>9.4E-2</v>
@@ -16207,7 +16207,7 @@
         <v>0.878</v>
       </c>
       <c r="K48" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L48" s="25">
         <v>8.1000000000000003E-2</v>
@@ -16239,7 +16239,7 @@
         <v>0.97899999999999998</v>
       </c>
       <c r="G49" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H49" s="25">
         <v>9.5000000000000001E-2</v>
@@ -16251,7 +16251,7 @@
         <v>0.877</v>
       </c>
       <c r="K49" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L49" s="25">
         <v>8.1000000000000003E-2</v>
@@ -16283,7 +16283,7 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="G50" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H50" s="25">
         <v>9.5000000000000001E-2</v>
@@ -16295,7 +16295,7 @@
         <v>0.877</v>
       </c>
       <c r="K50" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L50" s="25">
         <v>8.1000000000000003E-2</v>
@@ -16327,7 +16327,7 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="G51" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H51" s="25">
         <v>9.6000000000000002E-2</v>
@@ -16339,7 +16339,7 @@
         <v>0.876</v>
       </c>
       <c r="K51" s="25">
-        <v>8.1000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L51" s="25">
         <v>8.1000000000000003E-2</v>
@@ -16371,7 +16371,7 @@
         <v>0.97699999999999998</v>
       </c>
       <c r="G52" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H52" s="25">
         <v>9.6000000000000002E-2</v>
@@ -16383,7 +16383,7 @@
         <v>0.876</v>
       </c>
       <c r="K52" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="L52" s="25">
         <v>8.1000000000000003E-2</v>
@@ -16415,7 +16415,7 @@
         <v>0.97699999999999998</v>
       </c>
       <c r="G53" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="H53" s="25">
         <v>9.6000000000000002E-2</v>
@@ -16427,7 +16427,7 @@
         <v>0.875</v>
       </c>
       <c r="K53" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="L53" s="25">
         <v>8.1000000000000003E-2</v>
@@ -16459,7 +16459,7 @@
         <v>0.97699999999999998</v>
       </c>
       <c r="G54" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="H54" s="25">
         <v>9.6000000000000002E-2</v>
@@ -16471,7 +16471,7 @@
         <v>0.875</v>
       </c>
       <c r="K54" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="L54" s="25">
         <v>8.1000000000000003E-2</v>
@@ -16503,7 +16503,7 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="G55" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="H55" s="25">
         <v>9.5000000000000001E-2</v>
@@ -16515,7 +16515,7 @@
         <v>0.874</v>
       </c>
       <c r="K55" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="L55" s="25">
         <v>8.1000000000000003E-2</v>
@@ -16547,7 +16547,7 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="G56" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="H56" s="25">
         <v>9.6000000000000002E-2</v>
@@ -16559,7 +16559,7 @@
         <v>0.874</v>
       </c>
       <c r="K56" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="L56" s="25">
         <v>8.1000000000000003E-2</v>
@@ -16591,7 +16591,7 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="G57" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="H57" s="25">
         <v>9.5000000000000001E-2</v>
@@ -16603,7 +16603,7 @@
         <v>0.873</v>
       </c>
       <c r="K57" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="L57" s="25">
         <v>8.1000000000000003E-2</v>
@@ -16635,7 +16635,7 @@
         <v>0.97399999999999998</v>
       </c>
       <c r="G58" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="H58" s="25">
         <v>9.5000000000000001E-2</v>
@@ -16647,7 +16647,7 @@
         <v>0.873</v>
       </c>
       <c r="K58" s="25">
-        <v>8.2000000000000003E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="L58" s="25">
         <v>8.1000000000000003E-2</v>
@@ -21727,8 +21727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:O341"/>
   <sheetViews>
-    <sheetView topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:D325"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37:O108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22048,7 +22048,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="K37" s="25">
-        <v>9.6000000000000002E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L37" s="25">
         <v>8.5000000000000006E-2</v>
@@ -22060,7 +22060,7 @@
         <v>0.86499999999999999</v>
       </c>
       <c r="O37" s="25">
-        <v>8.5999999999999993E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -22092,7 +22092,7 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="K38" s="25">
-        <v>9.6000000000000002E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L38" s="25">
         <v>8.5999999999999993E-2</v>
@@ -22104,7 +22104,7 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="O38" s="25">
-        <v>8.6999999999999994E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -22136,7 +22136,7 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="K39" s="25">
-        <v>9.7000000000000003E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L39" s="25">
         <v>8.4000000000000005E-2</v>
@@ -22148,7 +22148,7 @@
         <v>0.85799999999999998</v>
       </c>
       <c r="O39" s="25">
-        <v>8.7999999999999995E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
@@ -22180,7 +22180,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="K40" s="25">
-        <v>9.8000000000000004E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L40" s="25">
         <v>8.5000000000000006E-2</v>
@@ -22192,7 +22192,7 @@
         <v>0.85699999999999998</v>
       </c>
       <c r="O40" s="25">
-        <v>8.7999999999999995E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
@@ -22224,7 +22224,7 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="K41" s="25">
-        <v>0.10199999999999999</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L41" s="25">
         <v>8.4000000000000005E-2</v>
@@ -22236,7 +22236,7 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="O41" s="25">
-        <v>8.8999999999999996E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
@@ -22268,7 +22268,7 @@
         <v>0.82099999999999995</v>
       </c>
       <c r="K42" s="25">
-        <v>9.9000000000000005E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L42" s="25">
         <v>8.4000000000000005E-2</v>
@@ -22280,7 +22280,7 @@
         <v>0.85499999999999998</v>
       </c>
       <c r="O42" s="25">
-        <v>8.8999999999999996E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
@@ -22312,7 +22312,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="K43" s="25">
-        <v>0.10299999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L43" s="25">
         <v>8.4000000000000005E-2</v>
@@ -22324,7 +22324,7 @@
         <v>0.85799999999999998</v>
       </c>
       <c r="O43" s="25">
-        <v>0.09</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
@@ -22356,7 +22356,7 @@
         <v>0.82099999999999995</v>
       </c>
       <c r="K44" s="25">
-        <v>0.1</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L44" s="25">
         <v>8.5999999999999993E-2</v>
@@ -22368,7 +22368,7 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="O44" s="25">
-        <v>0.09</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
@@ -22400,7 +22400,7 @@
         <v>0.82</v>
       </c>
       <c r="K45" s="25">
-        <v>0.10100000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L45" s="25">
         <v>8.5999999999999993E-2</v>
@@ -22412,7 +22412,7 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="O45" s="25">
-        <v>9.0999999999999998E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
@@ -22444,7 +22444,7 @@
         <v>0.82</v>
       </c>
       <c r="K46" s="25">
-        <v>0.104</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L46" s="25">
         <v>8.5999999999999993E-2</v>
@@ -22456,7 +22456,7 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="O46" s="25">
-        <v>9.1999999999999998E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
@@ -22488,7 +22488,7 @@
         <v>0.81799999999999995</v>
       </c>
       <c r="K47" s="25">
-        <v>0.10299999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L47" s="25">
         <v>8.4000000000000005E-2</v>
@@ -22500,7 +22500,7 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="O47" s="25">
-        <v>9.1999999999999998E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
@@ -22532,7 +22532,7 @@
         <v>0.81799999999999995</v>
       </c>
       <c r="K48" s="25">
-        <v>0.11700000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L48" s="25">
         <v>8.4000000000000005E-2</v>
@@ -22544,7 +22544,7 @@
         <v>0.85199999999999998</v>
       </c>
       <c r="O48" s="25">
-        <v>9.2999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.15">
@@ -22576,7 +22576,7 @@
         <v>0.81799999999999995</v>
       </c>
       <c r="K49" s="25">
-        <v>0.107</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L49" s="25">
         <v>8.4000000000000005E-2</v>
@@ -22588,7 +22588,7 @@
         <v>0.85199999999999998</v>
       </c>
       <c r="O49" s="25">
-        <v>9.2999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.15">
@@ -22620,7 +22620,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="K50" s="25">
-        <v>0.109</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L50" s="25">
         <v>8.4000000000000005E-2</v>
@@ -22632,7 +22632,7 @@
         <v>0.85099999999999998</v>
       </c>
       <c r="O50" s="25">
-        <v>9.4E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.15">
@@ -22664,7 +22664,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="K51" s="25">
-        <v>0.111</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L51" s="25">
         <v>8.4000000000000005E-2</v>
@@ -22676,7 +22676,7 @@
         <v>0.85</v>
       </c>
       <c r="O51" s="25">
-        <v>9.2999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.15">
@@ -22708,7 +22708,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="K52" s="25">
-        <v>0.113</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L52" s="25">
         <v>8.4000000000000005E-2</v>
@@ -22720,7 +22720,7 @@
         <v>0.84699999999999998</v>
       </c>
       <c r="O52" s="25">
-        <v>9.2999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.15">
@@ -22752,7 +22752,7 @@
         <v>0.81799999999999995</v>
       </c>
       <c r="K53" s="25">
-        <v>0.11700000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L53" s="25">
         <v>8.5000000000000006E-2</v>
@@ -22764,7 +22764,7 @@
         <v>0.84799999999999998</v>
       </c>
       <c r="O53" s="25">
-        <v>9.4E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.15">
@@ -22796,7 +22796,7 @@
         <v>0.81499999999999995</v>
       </c>
       <c r="K54" s="25">
-        <v>0.11799999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L54" s="25">
         <v>8.4000000000000005E-2</v>
@@ -22808,7 +22808,7 @@
         <v>0.84799999999999998</v>
       </c>
       <c r="O54" s="25">
-        <v>9.2999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.15">
@@ -22840,7 +22840,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="K55" s="25">
-        <v>0.122</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L55" s="25">
         <v>8.4000000000000005E-2</v>
@@ -22852,7 +22852,7 @@
         <v>0.84699999999999998</v>
       </c>
       <c r="O55" s="25">
-        <v>9.1999999999999998E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.15">
@@ -22884,7 +22884,7 @@
         <v>0.81299999999999994</v>
       </c>
       <c r="K56" s="25">
-        <v>0.125</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L56" s="25">
         <v>8.4000000000000005E-2</v>
@@ -22896,7 +22896,7 @@
         <v>0.84699999999999998</v>
       </c>
       <c r="O56" s="25">
-        <v>9.2999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.15">
@@ -22928,7 +22928,7 @@
         <v>0.81299999999999994</v>
       </c>
       <c r="K57" s="25">
-        <v>0.129</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L57" s="25">
         <v>8.4000000000000005E-2</v>
@@ -22940,7 +22940,7 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="O57" s="25">
-        <v>9.2999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.15">
@@ -22972,7 +22972,7 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="K58" s="25">
-        <v>0.13300000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L58" s="25">
         <v>8.4000000000000005E-2</v>
@@ -22984,7 +22984,7 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="O58" s="25">
-        <v>9.2999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.15">
@@ -23016,7 +23016,7 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="K59" s="25">
-        <v>0.13700000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L59" s="25">
         <v>8.4000000000000005E-2</v>
@@ -23028,7 +23028,7 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="O59" s="25">
-        <v>9.4E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.15">
@@ -23060,7 +23060,7 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="K60" s="25">
-        <v>0.14199999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L60" s="25">
         <v>8.4000000000000005E-2</v>
@@ -23072,7 +23072,7 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="O60" s="25">
-        <v>9.5000000000000001E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.15">
@@ -23104,7 +23104,7 @@
         <v>0.81</v>
       </c>
       <c r="K61" s="25">
-        <v>0.14799999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L61" s="25">
         <v>8.4000000000000005E-2</v>
@@ -23116,7 +23116,7 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="O61" s="25">
-        <v>9.4E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.15">
@@ -23148,7 +23148,7 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="K62" s="25">
-        <v>0.153</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L62" s="25">
         <v>8.4000000000000005E-2</v>
@@ -23160,7 +23160,7 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="O62" s="25">
-        <v>9.5000000000000001E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.15">
@@ -23192,7 +23192,7 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="K63" s="25">
-        <v>0.159</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L63" s="25">
         <v>8.5999999999999993E-2</v>
@@ -23204,7 +23204,7 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="O63" s="25">
-        <v>9.6000000000000002E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.15">
@@ -23236,7 +23236,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="K64" s="25">
-        <v>0.16700000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L64" s="25">
         <v>8.5000000000000006E-2</v>
@@ -23248,7 +23248,7 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="O64" s="25">
-        <v>9.6000000000000002E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.15">
@@ -23280,7 +23280,7 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="K65" s="25">
-        <v>0.17399999999999999</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L65" s="25">
         <v>8.5000000000000006E-2</v>
@@ -23292,7 +23292,7 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="O65" s="25">
-        <v>0.10299999999999999</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.15">
@@ -23324,7 +23324,7 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="K66" s="25">
-        <v>0.185</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L66" s="25">
         <v>8.5000000000000006E-2</v>
@@ -23336,7 +23336,7 @@
         <v>0.84</v>
       </c>
       <c r="O66" s="25">
-        <v>0.40200000000000002</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.15">
@@ -23368,7 +23368,7 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="K67" s="25">
-        <v>0.192</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L67" s="25">
         <v>8.5000000000000006E-2</v>
@@ -23380,7 +23380,7 @@
         <v>0.83899999999999997</v>
       </c>
       <c r="O67" s="25">
-        <v>0.10199999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.15">
@@ -23412,7 +23412,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="K68" s="25">
-        <v>0.20100000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L68" s="25">
         <v>8.4000000000000005E-2</v>
@@ -23424,7 +23424,7 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="O68" s="25">
-        <v>0.1</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.15">
@@ -23456,7 +23456,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="K69" s="25">
-        <v>0.21199999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L69" s="25">
         <v>8.4000000000000005E-2</v>
@@ -23468,7 +23468,7 @@
         <v>0.83699999999999997</v>
       </c>
       <c r="O69" s="25">
-        <v>0.10199999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.15">
@@ -23500,7 +23500,7 @@
         <v>0.80500000000000005</v>
       </c>
       <c r="K70" s="25">
-        <v>0.223</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L70" s="25">
         <v>8.4000000000000005E-2</v>
@@ -23512,7 +23512,7 @@
         <v>0.83699999999999997</v>
       </c>
       <c r="O70" s="25">
-        <v>0.115</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.15">
@@ -23544,7 +23544,7 @@
         <v>0.80500000000000005</v>
       </c>
       <c r="K71" s="25">
-        <v>0.23300000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L71" s="25">
         <v>8.4000000000000005E-2</v>
@@ -23556,7 +23556,7 @@
         <v>0.83599999999999997</v>
       </c>
       <c r="O71" s="25">
-        <v>0.108</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.15">
@@ -23588,7 +23588,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="K72" s="25">
-        <v>0.24399999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L72" s="25">
         <v>8.4000000000000005E-2</v>
@@ -23600,7 +23600,7 @@
         <v>0.83599999999999997</v>
       </c>
       <c r="O72" s="25">
-        <v>0.108</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.15">
@@ -23632,7 +23632,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="K73" s="25">
-        <v>0.253</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L73" s="25">
         <v>8.4000000000000005E-2</v>
@@ -23644,7 +23644,7 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="O73" s="25">
-        <v>0.111</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.15">
@@ -23676,7 +23676,7 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="K74" s="25">
-        <v>0.26700000000000002</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L74" s="25">
         <v>8.5000000000000006E-2</v>
@@ -23688,7 +23688,7 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="O74" s="25">
-        <v>0.23599999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.15">
@@ -23720,7 +23720,7 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="K75" s="25">
-        <v>0.28100000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L75" s="25">
         <v>8.4000000000000005E-2</v>
@@ -23732,7 +23732,7 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="O75" s="25">
-        <v>0.11700000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.15">
@@ -23764,7 +23764,7 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="K76" s="25">
-        <v>0.29299999999999998</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L76" s="25">
         <v>8.4000000000000005E-2</v>
@@ -23776,7 +23776,7 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="O76" s="25">
-        <v>0.13</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.15">
@@ -23808,7 +23808,7 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="K77" s="25">
-        <v>0.30599999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L77" s="25">
         <v>8.4000000000000005E-2</v>
@@ -23820,7 +23820,7 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="O77" s="25">
-        <v>0.19</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.15">
@@ -23852,7 +23852,7 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="K78" s="25">
-        <v>0.32200000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L78" s="25">
         <v>8.5000000000000006E-2</v>
@@ -23864,7 +23864,7 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="O78" s="25">
-        <v>0.13400000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.15">
@@ -23896,7 +23896,7 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="K79" s="25">
-        <v>0.33900000000000002</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L79" s="25">
         <v>8.4000000000000005E-2</v>
@@ -23908,7 +23908,7 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="O79" s="25">
-        <v>0.13100000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.15">
@@ -23940,7 +23940,7 @@
         <v>0.8</v>
       </c>
       <c r="K80" s="25">
-        <v>0.35499999999999998</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L80" s="25">
         <v>8.5000000000000006E-2</v>
@@ -23952,7 +23952,7 @@
         <v>0.83099999999999996</v>
       </c>
       <c r="O80" s="25">
-        <v>0.13500000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.15">
@@ -23984,7 +23984,7 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="K81" s="25">
-        <v>0.372</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L81" s="25">
         <v>8.4000000000000005E-2</v>
@@ -23996,7 +23996,7 @@
         <v>0.83</v>
       </c>
       <c r="O81" s="25">
-        <v>0.14099999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.15">
@@ -24028,7 +24028,7 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="K82" s="25">
-        <v>0.39100000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L82" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24040,7 +24040,7 @@
         <v>0.82899999999999996</v>
       </c>
       <c r="O82" s="25">
-        <v>0.14599999999999999</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.15">
@@ -24072,7 +24072,7 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="K83" s="25">
-        <v>0.40899999999999997</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L83" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24084,7 +24084,7 @@
         <v>0.82899999999999996</v>
       </c>
       <c r="O83" s="25">
-        <v>0.152</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.15">
@@ -24116,7 +24116,7 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="K84" s="25">
-        <v>0.42799999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L84" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24128,7 +24128,7 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="O84" s="25">
-        <v>0.158</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.15">
@@ -24160,7 +24160,7 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="K85" s="25">
-        <v>0.44400000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L85" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24172,7 +24172,7 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="O85" s="25">
-        <v>0.16700000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.15">
@@ -24204,7 +24204,7 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="K86" s="25">
-        <v>0.46200000000000002</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L86" s="25">
         <v>8.5000000000000006E-2</v>
@@ -24216,7 +24216,7 @@
         <v>0.82699999999999996</v>
       </c>
       <c r="O86" s="25">
-        <v>0.17299999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.15">
@@ -24248,7 +24248,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="K87" s="25">
-        <v>0.48</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L87" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24260,7 +24260,7 @@
         <v>0.82699999999999996</v>
       </c>
       <c r="O87" s="25">
-        <v>0.19700000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.15">
@@ -24292,7 +24292,7 @@
         <v>0.79500000000000004</v>
       </c>
       <c r="K88" s="25">
-        <v>0.5</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L88" s="25">
         <v>8.5000000000000006E-2</v>
@@ -24304,7 +24304,7 @@
         <v>0.82699999999999996</v>
       </c>
       <c r="O88" s="25">
-        <v>0.315</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.15">
@@ -24336,7 +24336,7 @@
         <v>0.79500000000000004</v>
       </c>
       <c r="K89" s="25">
-        <v>0.52400000000000002</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L89" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24348,7 +24348,7 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="O89" s="25">
-        <v>0.316</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.15">
@@ -24380,7 +24380,7 @@
         <v>0.79500000000000004</v>
       </c>
       <c r="K90" s="25">
-        <v>0.54400000000000004</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L90" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24392,7 +24392,7 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="O90" s="25">
-        <v>0.23300000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.15">
@@ -24424,7 +24424,7 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="K91" s="25">
-        <v>0.55800000000000005</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L91" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24436,7 +24436,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="O91" s="25">
-        <v>0.217</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.15">
@@ -24468,7 +24468,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="K92" s="25">
-        <v>0.56399999999999995</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L92" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24480,7 +24480,7 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="O92" s="25">
-        <v>0.45400000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.15">
@@ -24512,7 +24512,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="K93" s="25">
-        <v>0.57599999999999996</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L93" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24524,7 +24524,7 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="O93" s="25">
-        <v>0.24299999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.15">
@@ -24556,7 +24556,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="K94" s="25">
-        <v>0.60699999999999998</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L94" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24568,7 +24568,7 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="O94" s="25">
-        <v>0.39</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.15">
@@ -24600,7 +24600,7 @@
         <v>0.79200000000000004</v>
       </c>
       <c r="K95" s="25">
-        <v>0.60599999999999998</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L95" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24612,7 +24612,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="O95" s="25">
-        <v>0.254</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.15">
@@ -24644,7 +24644,7 @@
         <v>0.79200000000000004</v>
       </c>
       <c r="K96" s="25">
-        <v>0.61799999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L96" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24656,7 +24656,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="O96" s="25">
-        <v>0.312</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.15">
@@ -24688,7 +24688,7 @@
         <v>0.79100000000000004</v>
       </c>
       <c r="K97" s="25">
-        <v>0.63100000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L97" s="25">
         <v>8.5999999999999993E-2</v>
@@ -24700,7 +24700,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="O97" s="25">
-        <v>0.28000000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.15">
@@ -24732,7 +24732,7 @@
         <v>0.79200000000000004</v>
       </c>
       <c r="K98" s="25">
-        <v>0.64500000000000002</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L98" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24744,7 +24744,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="O98" s="25">
-        <v>0.28899999999999998</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.15">
@@ -24776,7 +24776,7 @@
         <v>0.79100000000000004</v>
       </c>
       <c r="K99" s="25">
-        <v>0.65100000000000002</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L99" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24788,7 +24788,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="O99" s="25">
-        <v>0.3</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.15">
@@ -24820,7 +24820,7 @@
         <v>0.79</v>
       </c>
       <c r="K100" s="25">
-        <v>0.65800000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L100" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24832,7 +24832,7 @@
         <v>0.82099999999999995</v>
       </c>
       <c r="O100" s="25">
-        <v>0.32300000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.15">
@@ -24864,7 +24864,7 @@
         <v>0.79</v>
       </c>
       <c r="K101" s="25">
-        <v>0.66700000000000004</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L101" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24876,7 +24876,7 @@
         <v>0.82099999999999995</v>
       </c>
       <c r="O101" s="25">
-        <v>0.33400000000000002</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.15">
@@ -24908,7 +24908,7 @@
         <v>0.79</v>
       </c>
       <c r="K102" s="25">
-        <v>0.67100000000000004</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L102" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24920,7 +24920,7 @@
         <v>0.82</v>
       </c>
       <c r="O102" s="25">
-        <v>0.34300000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.15">
@@ -24952,7 +24952,7 @@
         <v>0.79</v>
       </c>
       <c r="K103" s="25">
-        <v>0.67900000000000005</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L103" s="25">
         <v>8.4000000000000005E-2</v>
@@ -24964,7 +24964,7 @@
         <v>0.81899999999999995</v>
       </c>
       <c r="O103" s="25">
-        <v>0.35599999999999998</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.15">
@@ -24996,7 +24996,7 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="K104" s="25">
-        <v>0.68500000000000005</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L104" s="25">
         <v>8.5000000000000006E-2</v>
@@ -25008,7 +25008,7 @@
         <v>0.81899999999999995</v>
       </c>
       <c r="O104" s="25">
-        <v>0.38100000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.15">
@@ -25040,7 +25040,7 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="K105" s="25">
-        <v>0.69299999999999995</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L105" s="25">
         <v>8.4000000000000005E-2</v>
@@ -25052,7 +25052,7 @@
         <v>0.81899999999999995</v>
       </c>
       <c r="O105" s="25">
-        <v>0.38700000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.15">
@@ -25084,7 +25084,7 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="K106" s="25">
-        <v>0.69699999999999995</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L106" s="25">
         <v>8.5000000000000006E-2</v>
@@ -25096,7 +25096,7 @@
         <v>0.81799999999999995</v>
       </c>
       <c r="O106" s="25">
-        <v>0.47299999999999998</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.15">
@@ -25128,7 +25128,7 @@
         <v>0.78700000000000003</v>
       </c>
       <c r="K107" s="25">
-        <v>0.69799999999999995</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L107" s="25">
         <v>8.4000000000000005E-2</v>
@@ -25140,7 +25140,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="O107" s="25">
-        <v>0.48799999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.15">
@@ -25172,7 +25172,7 @@
         <v>0.78700000000000003</v>
       </c>
       <c r="K108" s="25">
-        <v>0.69699999999999995</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L108" s="25">
         <v>8.4000000000000005E-2</v>
@@ -25184,7 +25184,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="O108" s="25">
-        <v>0.44600000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.15">
@@ -29352,8 +29352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:O341"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:D59"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37:O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -29685,7 +29685,7 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="O37" s="25">
-        <v>9.7000000000000003E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -29729,7 +29729,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="O38" s="25">
-        <v>9.6000000000000002E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -29773,7 +29773,7 @@
         <v>0.79</v>
       </c>
       <c r="O39" s="25">
-        <v>9.5000000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
@@ -29817,7 +29817,7 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="O40" s="25">
-        <v>9.5000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
@@ -29861,7 +29861,7 @@
         <v>0.78700000000000003</v>
       </c>
       <c r="O41" s="25">
-        <v>9.5000000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
@@ -29905,7 +29905,7 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="O42" s="25">
-        <v>9.5000000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
@@ -29949,7 +29949,7 @@
         <v>0.78700000000000003</v>
       </c>
       <c r="O43" s="25">
-        <v>9.5000000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
@@ -29993,7 +29993,7 @@
         <v>0.78600000000000003</v>
       </c>
       <c r="O44" s="25">
-        <v>9.5000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
@@ -30037,7 +30037,7 @@
         <v>0.78700000000000003</v>
       </c>
       <c r="O45" s="25">
-        <v>9.5000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
@@ -30081,7 +30081,7 @@
         <v>0.78700000000000003</v>
       </c>
       <c r="O46" s="25">
-        <v>9.4E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
@@ -30125,7 +30125,7 @@
         <v>0.78500000000000003</v>
       </c>
       <c r="O47" s="25">
-        <v>9.4E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
@@ -30169,7 +30169,7 @@
         <v>0.78500000000000003</v>
       </c>
       <c r="O48" s="25">
-        <v>9.4E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.15">
@@ -30213,7 +30213,7 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="O49" s="25">
-        <v>9.4E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.15">
@@ -30257,7 +30257,7 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="O50" s="25">
-        <v>9.4E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.15">
@@ -30301,7 +30301,7 @@
         <v>0.78300000000000003</v>
       </c>
       <c r="O51" s="25">
-        <v>9.4E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.15">
@@ -30345,7 +30345,7 @@
         <v>0.78200000000000003</v>
       </c>
       <c r="O52" s="25">
-        <v>9.4E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.15">
@@ -30389,7 +30389,7 @@
         <v>0.78200000000000003</v>
       </c>
       <c r="O53" s="25">
-        <v>9.4E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.15">
@@ -30433,7 +30433,7 @@
         <v>0.78200000000000003</v>
       </c>
       <c r="O54" s="25">
-        <v>9.4E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.15">
@@ -30477,7 +30477,7 @@
         <v>0.78100000000000003</v>
       </c>
       <c r="O55" s="25">
-        <v>9.4E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.15">
@@ -30521,7 +30521,7 @@
         <v>0.78100000000000003</v>
       </c>
       <c r="O56" s="25">
-        <v>9.4E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.15">
@@ -30565,7 +30565,7 @@
         <v>0.78</v>
       </c>
       <c r="O57" s="25">
-        <v>9.4E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.15">
@@ -30609,7 +30609,7 @@
         <v>0.78</v>
       </c>
       <c r="O58" s="25">
-        <v>9.4E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.15">
@@ -35676,8 +35676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:O341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="P81" sqref="P81"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37:L129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -35976,7 +35976,7 @@
         <v>25.4</v>
       </c>
       <c r="D37" s="25">
-        <v>8.7999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E37" s="25">
         <v>0.85799999999999998</v>
@@ -35985,10 +35985,10 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="G37" s="25">
-        <v>9.0999999999999998E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H37" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I37" s="25">
         <v>0.77500000000000002</v>
@@ -36000,7 +36000,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L37" s="25">
-        <v>0.09</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M37" s="25">
         <v>0.86699999999999999</v>
@@ -36020,7 +36020,7 @@
         <v>25.4</v>
       </c>
       <c r="D38" s="25">
-        <v>8.7999999999999995E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="E38" s="25">
         <v>0.85499999999999998</v>
@@ -36029,10 +36029,10 @@
         <v>0.78100000000000003</v>
       </c>
       <c r="G38" s="25">
-        <v>0.09</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="H38" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="I38" s="25">
         <v>0.77700000000000002</v>
@@ -36044,7 +36044,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L38" s="25">
-        <v>0.09</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="M38" s="25">
         <v>0.86399999999999999</v>
@@ -36064,7 +36064,7 @@
         <v>25.4</v>
       </c>
       <c r="D39" s="25">
-        <v>8.7999999999999995E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E39" s="25">
         <v>0.85599999999999998</v>
@@ -36073,10 +36073,10 @@
         <v>0.78300000000000003</v>
       </c>
       <c r="G39" s="25">
-        <v>9.0999999999999998E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H39" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I39" s="25">
         <v>0.77100000000000002</v>
@@ -36088,7 +36088,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L39" s="25">
-        <v>0.09</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M39" s="25">
         <v>0.86299999999999999</v>
@@ -36108,7 +36108,7 @@
         <v>25.4</v>
       </c>
       <c r="D40" s="25">
-        <v>8.8999999999999996E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E40" s="25">
         <v>0.85599999999999998</v>
@@ -36117,10 +36117,10 @@
         <v>0.78100000000000003</v>
       </c>
       <c r="G40" s="25">
-        <v>9.0999999999999998E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H40" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I40" s="25">
         <v>0.77100000000000002</v>
@@ -36132,7 +36132,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L40" s="25">
-        <v>9.0999999999999998E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M40" s="25">
         <v>0.86299999999999999</v>
@@ -36152,7 +36152,7 @@
         <v>25.4</v>
       </c>
       <c r="D41" s="25">
-        <v>8.8999999999999996E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="E41" s="25">
         <v>0.85199999999999998</v>
@@ -36161,10 +36161,10 @@
         <v>0.78500000000000003</v>
       </c>
       <c r="G41" s="25">
-        <v>9.1999999999999998E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H41" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I41" s="25">
         <v>0.76900000000000002</v>
@@ -36176,7 +36176,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L41" s="25">
-        <v>9.0999999999999998E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="M41" s="25">
         <v>0.86399999999999999</v>
@@ -36196,7 +36196,7 @@
         <v>25.3</v>
       </c>
       <c r="D42" s="25">
-        <v>0.09</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E42" s="25">
         <v>0.85299999999999998</v>
@@ -36205,10 +36205,10 @@
         <v>0.78200000000000003</v>
       </c>
       <c r="G42" s="25">
-        <v>9.1999999999999998E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H42" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I42" s="25">
         <v>0.76900000000000002</v>
@@ -36220,7 +36220,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L42" s="25">
-        <v>9.0999999999999998E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M42" s="25">
         <v>0.86399999999999999</v>
@@ -36240,7 +36240,7 @@
         <v>25.4</v>
       </c>
       <c r="D43" s="25">
-        <v>0.09</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E43" s="25">
         <v>0.85199999999999998</v>
@@ -36249,10 +36249,10 @@
         <v>0.78100000000000003</v>
       </c>
       <c r="G43" s="25">
-        <v>9.1999999999999998E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H43" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I43" s="25">
         <v>0.76900000000000002</v>
@@ -36264,7 +36264,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L43" s="25">
-        <v>9.1999999999999998E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M43" s="25">
         <v>0.86199999999999999</v>
@@ -36284,7 +36284,7 @@
         <v>25.4</v>
       </c>
       <c r="D44" s="25">
-        <v>0.09</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E44" s="25">
         <v>0.85299999999999998</v>
@@ -36293,10 +36293,10 @@
         <v>0.78100000000000003</v>
       </c>
       <c r="G44" s="25">
-        <v>9.2999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H44" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I44" s="25">
         <v>0.76800000000000002</v>
@@ -36328,7 +36328,7 @@
         <v>25.4</v>
       </c>
       <c r="D45" s="25">
-        <v>9.5000000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E45" s="25">
         <v>0.84899999999999998</v>
@@ -36340,7 +36340,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="H45" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I45" s="25">
         <v>0.76800000000000002</v>
@@ -36372,7 +36372,7 @@
         <v>25.4</v>
       </c>
       <c r="D46" s="25">
-        <v>0.09</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E46" s="25">
         <v>0.84899999999999998</v>
@@ -36381,10 +36381,10 @@
         <v>0.77800000000000002</v>
       </c>
       <c r="G46" s="25">
-        <v>9.4E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H46" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I46" s="25">
         <v>0.76700000000000002</v>
@@ -36416,7 +36416,7 @@
         <v>25.4</v>
       </c>
       <c r="D47" s="25">
-        <v>0.09</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E47" s="25">
         <v>0.84799999999999998</v>
@@ -36425,10 +36425,10 @@
         <v>0.77900000000000003</v>
       </c>
       <c r="G47" s="25">
-        <v>9.5000000000000001E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H47" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I47" s="25">
         <v>0.76700000000000002</v>
@@ -36460,7 +36460,7 @@
         <v>25.4</v>
       </c>
       <c r="D48" s="25">
-        <v>0.09</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E48" s="25">
         <v>0.84799999999999998</v>
@@ -36469,10 +36469,10 @@
         <v>0.77800000000000002</v>
       </c>
       <c r="G48" s="25">
-        <v>9.6000000000000002E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H48" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I48" s="25">
         <v>0.76800000000000002</v>
@@ -36504,7 +36504,7 @@
         <v>25.4</v>
       </c>
       <c r="D49" s="25">
-        <v>9.0999999999999998E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E49" s="25">
         <v>0.84799999999999998</v>
@@ -36513,10 +36513,10 @@
         <v>0.77800000000000002</v>
       </c>
       <c r="G49" s="25">
-        <v>9.8000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H49" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I49" s="25">
         <v>0.76700000000000002</v>
@@ -36528,7 +36528,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L49" s="25">
-        <v>9.2999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M49" s="25">
         <v>0.86</v>
@@ -36548,7 +36548,7 @@
         <v>25.3</v>
       </c>
       <c r="D50" s="25">
-        <v>0.09</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E50" s="25">
         <v>0.84899999999999998</v>
@@ -36557,10 +36557,10 @@
         <v>0.77700000000000002</v>
       </c>
       <c r="G50" s="25">
-        <v>9.8000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H50" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I50" s="25">
         <v>0.76700000000000002</v>
@@ -36572,7 +36572,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L50" s="25">
-        <v>9.4E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M50" s="25">
         <v>0.86</v>
@@ -36592,7 +36592,7 @@
         <v>25.3</v>
       </c>
       <c r="D51" s="25">
-        <v>9.0999999999999998E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E51" s="25">
         <v>0.84599999999999997</v>
@@ -36601,10 +36601,10 @@
         <v>0.77700000000000002</v>
       </c>
       <c r="G51" s="25">
-        <v>9.9000000000000005E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H51" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I51" s="25">
         <v>0.76600000000000001</v>
@@ -36636,7 +36636,7 @@
         <v>25.3</v>
       </c>
       <c r="D52" s="25">
-        <v>9.0999999999999998E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E52" s="25">
         <v>0.84599999999999997</v>
@@ -36645,10 +36645,10 @@
         <v>0.77700000000000002</v>
       </c>
       <c r="G52" s="25">
-        <v>0.1</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H52" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I52" s="25">
         <v>0.77200000000000002</v>
@@ -36660,7 +36660,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L52" s="25">
-        <v>9.4E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M52" s="25">
         <v>0.86</v>
@@ -36680,7 +36680,7 @@
         <v>25.3</v>
       </c>
       <c r="D53" s="25">
-        <v>9.1999999999999998E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E53" s="25">
         <v>0.84599999999999997</v>
@@ -36689,10 +36689,10 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="G53" s="25">
-        <v>0.10199999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H53" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I53" s="25">
         <v>0.76500000000000001</v>
@@ -36704,7 +36704,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L53" s="25">
-        <v>9.4E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M53" s="25">
         <v>0.85799999999999998</v>
@@ -36733,10 +36733,10 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="G54" s="25">
-        <v>0.10299999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H54" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I54" s="25">
         <v>0.76500000000000001</v>
@@ -36748,7 +36748,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L54" s="25">
-        <v>9.5000000000000001E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M54" s="25">
         <v>0.85799999999999998</v>
@@ -36768,7 +36768,7 @@
         <v>25.3</v>
       </c>
       <c r="D55" s="25">
-        <v>9.1999999999999998E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E55" s="25">
         <v>0.84499999999999997</v>
@@ -36777,10 +36777,10 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="G55" s="25">
-        <v>0.105</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H55" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I55" s="25">
         <v>0.76400000000000001</v>
@@ -36792,7 +36792,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L55" s="25">
-        <v>9.4E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M55" s="25">
         <v>0.85699999999999998</v>
@@ -36812,7 +36812,7 @@
         <v>25.4</v>
       </c>
       <c r="D56" s="25">
-        <v>9.2999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E56" s="25">
         <v>0.84399999999999997</v>
@@ -36821,10 +36821,10 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="G56" s="25">
-        <v>0.107</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H56" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I56" s="25">
         <v>0.76400000000000001</v>
@@ -36836,7 +36836,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L56" s="25">
-        <v>9.5000000000000001E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M56" s="25">
         <v>0.85599999999999998</v>
@@ -36856,7 +36856,7 @@
         <v>25.5</v>
       </c>
       <c r="D57" s="25">
-        <v>9.2999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E57" s="25">
         <v>0.84399999999999997</v>
@@ -36865,10 +36865,10 @@
         <v>0.77400000000000002</v>
       </c>
       <c r="G57" s="25">
-        <v>0.11</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H57" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I57" s="25">
         <v>0.76300000000000001</v>
@@ -36880,7 +36880,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L57" s="25">
-        <v>9.5000000000000001E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M57" s="25">
         <v>0.85599999999999998</v>
@@ -36900,7 +36900,7 @@
         <v>25.5</v>
       </c>
       <c r="D58" s="25">
-        <v>9.4E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E58" s="25">
         <v>0.84299999999999997</v>
@@ -36909,10 +36909,10 @@
         <v>0.77400000000000002</v>
       </c>
       <c r="G58" s="25">
-        <v>0.112</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H58" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I58" s="25">
         <v>0.76200000000000001</v>
@@ -36924,7 +36924,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L58" s="25">
-        <v>9.6000000000000002E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M58" s="25">
         <v>0.85599999999999998</v>
@@ -36944,7 +36944,7 @@
         <v>25.6</v>
       </c>
       <c r="D59" s="25">
-        <v>9.5000000000000001E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="E59" s="25">
         <v>0.84299999999999997</v>
@@ -36953,10 +36953,10 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="G59" s="25">
-        <v>0.115</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="H59" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="I59" s="25">
         <v>0.76300000000000001</v>
@@ -36968,7 +36968,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L59" s="25">
-        <v>9.6000000000000002E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="M59" s="25">
         <v>0.85499999999999998</v>
@@ -36988,7 +36988,7 @@
         <v>25.7</v>
       </c>
       <c r="D60" s="25">
-        <v>9.6000000000000002E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E60" s="25">
         <v>0.84199999999999997</v>
@@ -36997,10 +36997,10 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="G60" s="25">
-        <v>0.11700000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H60" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I60" s="25">
         <v>0.76200000000000001</v>
@@ -37012,7 +37012,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L60" s="25">
-        <v>9.7000000000000003E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M60" s="25">
         <v>0.85399999999999998</v>
@@ -37032,7 +37032,7 @@
         <v>25.7</v>
       </c>
       <c r="D61" s="25">
-        <v>9.7000000000000003E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E61" s="25">
         <v>0.84099999999999997</v>
@@ -37041,10 +37041,10 @@
         <v>0.77200000000000002</v>
       </c>
       <c r="G61" s="25">
-        <v>0.122</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H61" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I61" s="25">
         <v>0.76100000000000001</v>
@@ -37056,7 +37056,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L61" s="25">
-        <v>9.8000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M61" s="25">
         <v>0.85399999999999998</v>
@@ -37076,7 +37076,7 @@
         <v>25.8</v>
       </c>
       <c r="D62" s="25">
-        <v>9.8000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E62" s="25">
         <v>0.84099999999999997</v>
@@ -37085,10 +37085,10 @@
         <v>0.77200000000000002</v>
       </c>
       <c r="G62" s="25">
-        <v>0.125</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H62" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I62" s="25">
         <v>0.76100000000000001</v>
@@ -37100,7 +37100,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L62" s="25">
-        <v>9.9000000000000005E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M62" s="25">
         <v>0.85299999999999998</v>
@@ -37120,7 +37120,7 @@
         <v>25.8</v>
       </c>
       <c r="D63" s="25">
-        <v>9.9000000000000005E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E63" s="25">
         <v>0.84099999999999997</v>
@@ -37129,10 +37129,10 @@
         <v>0.77200000000000002</v>
       </c>
       <c r="G63" s="25">
-        <v>0.128</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H63" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I63" s="25">
         <v>0.76</v>
@@ -37144,7 +37144,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L63" s="25">
-        <v>0.10199999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M63" s="25">
         <v>0.85299999999999998</v>
@@ -37164,7 +37164,7 @@
         <v>25.8</v>
       </c>
       <c r="D64" s="25">
-        <v>0.10100000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E64" s="25">
         <v>0.84</v>
@@ -37173,10 +37173,10 @@
         <v>0.77100000000000002</v>
       </c>
       <c r="G64" s="25">
-        <v>0.13300000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H64" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I64" s="25">
         <v>0.76</v>
@@ -37188,7 +37188,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L64" s="25">
-        <v>0.10100000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M64" s="25">
         <v>0.85199999999999998</v>
@@ -37208,7 +37208,7 @@
         <v>25.9</v>
       </c>
       <c r="D65" s="25">
-        <v>0.10199999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E65" s="25">
         <v>0.83899999999999997</v>
@@ -37217,10 +37217,10 @@
         <v>0.77100000000000002</v>
       </c>
       <c r="G65" s="25">
-        <v>0.13800000000000001</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H65" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I65" s="25">
         <v>0.76</v>
@@ -37232,7 +37232,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L65" s="25">
-        <v>0.10299999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M65" s="25">
         <v>0.85199999999999998</v>
@@ -37252,7 +37252,7 @@
         <v>25.9</v>
       </c>
       <c r="D66" s="25">
-        <v>0.104</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E66" s="25">
         <v>0.83899999999999997</v>
@@ -37261,10 +37261,10 @@
         <v>0.77</v>
       </c>
       <c r="G66" s="25">
-        <v>0.14299999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H66" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I66" s="25">
         <v>0.75900000000000001</v>
@@ -37276,7 +37276,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L66" s="25">
-        <v>0.10299999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M66" s="25">
         <v>0.85099999999999998</v>
@@ -37296,7 +37296,7 @@
         <v>25.9</v>
       </c>
       <c r="D67" s="25">
-        <v>0.105</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E67" s="25">
         <v>0.83899999999999997</v>
@@ -37305,10 +37305,10 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="G67" s="25">
-        <v>0.14799999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H67" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I67" s="25">
         <v>0.75900000000000001</v>
@@ -37320,7 +37320,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L67" s="25">
-        <v>0.105</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M67" s="25">
         <v>0.85099999999999998</v>
@@ -37340,7 +37340,7 @@
         <v>25.9</v>
       </c>
       <c r="D68" s="25">
-        <v>0.108</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E68" s="25">
         <v>0.83799999999999997</v>
@@ -37349,10 +37349,10 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="G68" s="25">
-        <v>0.155</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H68" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I68" s="25">
         <v>0.75800000000000001</v>
@@ -37364,7 +37364,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L68" s="25">
-        <v>0.106</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M68" s="25">
         <v>0.85</v>
@@ -37384,7 +37384,7 @@
         <v>25.9</v>
       </c>
       <c r="D69" s="25">
-        <v>0.11</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E69" s="25">
         <v>0.83699999999999997</v>
@@ -37393,10 +37393,10 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="G69" s="25">
-        <v>0.16400000000000001</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H69" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I69" s="25">
         <v>0.75800000000000001</v>
@@ -37408,7 +37408,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L69" s="25">
-        <v>0.109</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M69" s="25">
         <v>0.85</v>
@@ -37428,7 +37428,7 @@
         <v>25.9</v>
       </c>
       <c r="D70" s="25">
-        <v>0.113</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E70" s="25">
         <v>0.83699999999999997</v>
@@ -37437,10 +37437,10 @@
         <v>0.76900000000000002</v>
       </c>
       <c r="G70" s="25">
-        <v>0.17</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H70" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I70" s="25">
         <v>0.75800000000000001</v>
@@ -37452,7 +37452,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L70" s="25">
-        <v>0.11</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M70" s="25">
         <v>0.84899999999999998</v>
@@ -37472,7 +37472,7 @@
         <v>25.9</v>
       </c>
       <c r="D71" s="25">
-        <v>0.115</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E71" s="25">
         <v>0.83599999999999997</v>
@@ -37481,10 +37481,10 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="G71" s="25">
-        <v>0.17899999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H71" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I71" s="25">
         <v>0.75800000000000001</v>
@@ -37496,7 +37496,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L71" s="25">
-        <v>0.113</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M71" s="25">
         <v>0.84799999999999998</v>
@@ -37516,7 +37516,7 @@
         <v>25.9</v>
       </c>
       <c r="D72" s="25">
-        <v>0.11899999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E72" s="25">
         <v>0.83599999999999997</v>
@@ -37525,10 +37525,10 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="G72" s="25">
-        <v>0.188</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H72" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I72" s="25">
         <v>0.75700000000000001</v>
@@ -37540,7 +37540,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L72" s="25">
-        <v>0.115</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M72" s="25">
         <v>0.84799999999999998</v>
@@ -37560,7 +37560,7 @@
         <v>25.9</v>
       </c>
       <c r="D73" s="25">
-        <v>0.122</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E73" s="25">
         <v>0.83599999999999997</v>
@@ -37569,10 +37569,10 @@
         <v>0.76700000000000002</v>
       </c>
       <c r="G73" s="25">
-        <v>0.19800000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H73" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I73" s="25">
         <v>0.75600000000000001</v>
@@ -37584,7 +37584,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L73" s="25">
-        <v>0.11799999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M73" s="25">
         <v>0.84799999999999998</v>
@@ -37604,7 +37604,7 @@
         <v>25.9</v>
       </c>
       <c r="D74" s="25">
-        <v>0.125</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E74" s="25">
         <v>0.83499999999999996</v>
@@ -37613,10 +37613,10 @@
         <v>0.76700000000000002</v>
       </c>
       <c r="G74" s="25">
-        <v>0.20899999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H74" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I74" s="25">
         <v>0.75600000000000001</v>
@@ -37628,7 +37628,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L74" s="25">
-        <v>0.122</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M74" s="25">
         <v>0.84699999999999998</v>
@@ -37648,7 +37648,7 @@
         <v>25.8</v>
       </c>
       <c r="D75" s="25">
-        <v>0.13</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E75" s="25">
         <v>0.83399999999999996</v>
@@ -37657,10 +37657,10 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="G75" s="25">
-        <v>0.221</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H75" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I75" s="25">
         <v>0.75600000000000001</v>
@@ -37672,7 +37672,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L75" s="25">
-        <v>0.124</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M75" s="25">
         <v>0.85499999999999998</v>
@@ -37692,7 +37692,7 @@
         <v>25.8</v>
       </c>
       <c r="D76" s="25">
-        <v>0.13400000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E76" s="25">
         <v>0.83299999999999996</v>
@@ -37701,10 +37701,10 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="G76" s="25">
-        <v>0.23300000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H76" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I76" s="25">
         <v>0.755</v>
@@ -37716,7 +37716,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L76" s="25">
-        <v>0.129</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M76" s="25">
         <v>0.85399999999999998</v>
@@ -37736,7 +37736,7 @@
         <v>25.8</v>
       </c>
       <c r="D77" s="25">
-        <v>0.13900000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E77" s="25">
         <v>0.83399999999999996</v>
@@ -37745,10 +37745,10 @@
         <v>0.76500000000000001</v>
       </c>
       <c r="G77" s="25">
-        <v>0.246</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H77" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I77" s="25">
         <v>0.755</v>
@@ -37760,7 +37760,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L77" s="25">
-        <v>0.13300000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M77" s="25">
         <v>0.85599999999999998</v>
@@ -37780,7 +37780,7 @@
         <v>25.8</v>
       </c>
       <c r="D78" s="25">
-        <v>0.14399999999999999</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="E78" s="25">
         <v>0.83399999999999996</v>
@@ -37789,10 +37789,10 @@
         <v>0.76500000000000001</v>
       </c>
       <c r="G78" s="25">
-        <v>0.25900000000000001</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="H78" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="I78" s="25">
         <v>0.754</v>
@@ -37804,7 +37804,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L78" s="25">
-        <v>0.13700000000000001</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="M78" s="25">
         <v>0.85399999999999998</v>
@@ -37824,7 +37824,7 @@
         <v>25.8</v>
       </c>
       <c r="D79" s="25">
-        <v>0.15</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E79" s="25">
         <v>0.83299999999999996</v>
@@ -37833,10 +37833,10 @@
         <v>0.76400000000000001</v>
       </c>
       <c r="G79" s="25">
-        <v>0.27400000000000002</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H79" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I79" s="25">
         <v>0.754</v>
@@ -37848,7 +37848,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L79" s="25">
-        <v>0.14199999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M79" s="25">
         <v>0.85299999999999998</v>
@@ -37868,7 +37868,7 @@
         <v>25.8</v>
       </c>
       <c r="D80" s="25">
-        <v>0.161</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E80" s="25">
         <v>0.83199999999999996</v>
@@ -37877,10 +37877,10 @@
         <v>0.76400000000000001</v>
       </c>
       <c r="G80" s="25">
-        <v>0.28999999999999998</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H80" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I80" s="25">
         <v>0.754</v>
@@ -37892,7 +37892,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L80" s="25">
-        <v>0.14799999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M80" s="25">
         <v>0.85299999999999998</v>
@@ -37912,7 +37912,7 @@
         <v>25.7</v>
       </c>
       <c r="D81" s="25">
-        <v>0.16300000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E81" s="25">
         <v>0.83199999999999996</v>
@@ -37921,10 +37921,10 @@
         <v>0.76400000000000001</v>
       </c>
       <c r="G81" s="25">
-        <v>0.30299999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H81" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I81" s="25">
         <v>0.753</v>
@@ -37936,7 +37936,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L81" s="25">
-        <v>0.153</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M81" s="25">
         <v>0.85199999999999998</v>
@@ -37956,7 +37956,7 @@
         <v>25.7</v>
       </c>
       <c r="D82" s="25">
-        <v>0.17100000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E82" s="25">
         <v>0.83199999999999996</v>
@@ -37965,10 +37965,10 @@
         <v>0.76300000000000001</v>
       </c>
       <c r="G82" s="25">
-        <v>0.318</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H82" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I82" s="25">
         <v>0.75600000000000001</v>
@@ -37980,7 +37980,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L82" s="25">
-        <v>0.16</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M82" s="25">
         <v>0.85199999999999998</v>
@@ -38000,7 +38000,7 @@
         <v>25.7</v>
       </c>
       <c r="D83" s="25">
-        <v>0.18099999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E83" s="25">
         <v>0.83099999999999996</v>
@@ -38009,10 +38009,10 @@
         <v>0.76300000000000001</v>
       </c>
       <c r="G83" s="25">
-        <v>0.33400000000000002</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H83" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I83" s="25">
         <v>0.752</v>
@@ -38024,7 +38024,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L83" s="25">
-        <v>0.16700000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M83" s="25">
         <v>0.85199999999999998</v>
@@ -38044,7 +38044,7 @@
         <v>25.7</v>
       </c>
       <c r="D84" s="25">
-        <v>0.189</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E84" s="25">
         <v>0.83099999999999996</v>
@@ -38053,10 +38053,10 @@
         <v>0.76200000000000001</v>
       </c>
       <c r="G84" s="25">
-        <v>0.34699999999999998</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H84" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I84" s="25">
         <v>0.752</v>
@@ -38068,7 +38068,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L84" s="25">
-        <v>0.17599999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M84" s="25">
         <v>0.85099999999999998</v>
@@ -38088,7 +38088,7 @@
         <v>25.7</v>
       </c>
       <c r="D85" s="25">
-        <v>0.19900000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E85" s="25">
         <v>0.83</v>
@@ -38097,10 +38097,10 @@
         <v>0.76200000000000001</v>
       </c>
       <c r="G85" s="25">
-        <v>0.36199999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H85" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I85" s="25">
         <v>0.752</v>
@@ -38112,7 +38112,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L85" s="25">
-        <v>0.183</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M85" s="25">
         <v>0.85099999999999998</v>
@@ -38132,7 +38132,7 @@
         <v>25.7</v>
       </c>
       <c r="D86" s="25">
-        <v>0.20899999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E86" s="25">
         <v>0.83</v>
@@ -38141,10 +38141,10 @@
         <v>0.76200000000000001</v>
       </c>
       <c r="G86" s="25">
-        <v>0.38100000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H86" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I86" s="25">
         <v>0.751</v>
@@ -38156,7 +38156,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L86" s="25">
-        <v>0.192</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M86" s="25">
         <v>0.85099999999999998</v>
@@ -38176,7 +38176,7 @@
         <v>25.7</v>
       </c>
       <c r="D87" s="25">
-        <v>0.22</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E87" s="25">
         <v>0.82899999999999996</v>
@@ -38185,10 +38185,10 @@
         <v>0.76200000000000001</v>
       </c>
       <c r="G87" s="25">
-        <v>0.39500000000000002</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H87" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I87" s="25">
         <v>0.751</v>
@@ -38200,7 +38200,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L87" s="25">
-        <v>0.20100000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M87" s="25">
         <v>0.85</v>
@@ -38220,7 +38220,7 @@
         <v>25.7</v>
       </c>
       <c r="D88" s="25">
-        <v>0.23100000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E88" s="25">
         <v>0.82899999999999996</v>
@@ -38229,10 +38229,10 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="G88" s="25">
-        <v>0.41199999999999998</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H88" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I88" s="25">
         <v>0.751</v>
@@ -38244,7 +38244,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L88" s="25">
-        <v>0.21099999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M88" s="25">
         <v>0.85</v>
@@ -38264,7 +38264,7 @@
         <v>25.6</v>
       </c>
       <c r="D89" s="25">
-        <v>0.24299999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E89" s="25">
         <v>0.82799999999999996</v>
@@ -38273,10 +38273,10 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="G89" s="25">
-        <v>0.433</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H89" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I89" s="25">
         <v>0.75</v>
@@ -38288,7 +38288,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L89" s="25">
-        <v>0.222</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M89" s="25">
         <v>0.84899999999999998</v>
@@ -38308,7 +38308,7 @@
         <v>25.6</v>
       </c>
       <c r="D90" s="25">
-        <v>0.25600000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E90" s="25">
         <v>0.82799999999999996</v>
@@ -38317,10 +38317,10 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="G90" s="25">
-        <v>0.45600000000000002</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H90" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I90" s="25">
         <v>0.75</v>
@@ -38332,7 +38332,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L90" s="25">
-        <v>0.23300000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M90" s="25">
         <v>0.84899999999999998</v>
@@ -38352,7 +38352,7 @@
         <v>25.6</v>
       </c>
       <c r="D91" s="25">
-        <v>0.27</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E91" s="25">
         <v>0.82799999999999996</v>
@@ -38361,10 +38361,10 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="G91" s="25">
-        <v>0.47799999999999998</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H91" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I91" s="25">
         <v>0.749</v>
@@ -38376,7 +38376,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L91" s="25">
-        <v>0.246</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M91" s="25">
         <v>0.84799999999999998</v>
@@ -38396,7 +38396,7 @@
         <v>25.6</v>
       </c>
       <c r="D92" s="25">
-        <v>0.28000000000000003</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E92" s="25">
         <v>0.82799999999999996</v>
@@ -38405,10 +38405,10 @@
         <v>0.76</v>
       </c>
       <c r="G92" s="25">
-        <v>0.503</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H92" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I92" s="25">
         <v>0.749</v>
@@ -38420,7 +38420,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L92" s="25">
-        <v>0.25800000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M92" s="25">
         <v>0.84799999999999998</v>
@@ -38440,7 +38440,7 @@
         <v>25.6</v>
       </c>
       <c r="D93" s="25">
-        <v>0.29199999999999998</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E93" s="25">
         <v>0.82699999999999996</v>
@@ -38449,10 +38449,10 @@
         <v>0.76</v>
       </c>
       <c r="G93" s="25">
-        <v>0.52700000000000002</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H93" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I93" s="25">
         <v>0.749</v>
@@ -38464,7 +38464,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L93" s="25">
-        <v>0.27200000000000002</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M93" s="25">
         <v>0.84699999999999998</v>
@@ -38484,7 +38484,7 @@
         <v>25.6</v>
       </c>
       <c r="D94" s="25">
-        <v>0.30599999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E94" s="25">
         <v>0.82699999999999996</v>
@@ -38493,10 +38493,10 @@
         <v>0.76</v>
       </c>
       <c r="G94" s="25">
-        <v>0.55300000000000005</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H94" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I94" s="25">
         <v>0.749</v>
@@ -38508,7 +38508,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L94" s="25">
-        <v>0.28199999999999997</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M94" s="25">
         <v>0.84699999999999998</v>
@@ -38528,7 +38528,7 @@
         <v>25.6</v>
       </c>
       <c r="D95" s="25">
-        <v>0.32100000000000001</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E95" s="25">
         <v>0.82599999999999996</v>
@@ -38537,10 +38537,10 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="G95" s="25">
-        <v>0.57799999999999996</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H95" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I95" s="25">
         <v>0.748</v>
@@ -38552,7 +38552,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L95" s="25">
-        <v>0.29399999999999998</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M95" s="25">
         <v>0.84699999999999998</v>
@@ -38572,7 +38572,7 @@
         <v>25.6</v>
       </c>
       <c r="D96" s="25">
-        <v>0.33800000000000002</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E96" s="25">
         <v>0.82599999999999996</v>
@@ -38581,10 +38581,10 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="G96" s="25">
-        <v>0.59199999999999997</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H96" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I96" s="25">
         <v>0.75</v>
@@ -38596,7 +38596,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L96" s="25">
-        <v>0.307</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M96" s="25">
         <v>0.84599999999999997</v>
@@ -38616,7 +38616,7 @@
         <v>25.6</v>
       </c>
       <c r="D97" s="25">
-        <v>0.35299999999999998</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E97" s="25">
         <v>0.84399999999999997</v>
@@ -38625,10 +38625,10 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="G97" s="25">
-        <v>0.60699999999999998</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H97" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I97" s="25">
         <v>0.748</v>
@@ -38640,7 +38640,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L97" s="25">
-        <v>0.32200000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M97" s="25">
         <v>0.84599999999999997</v>
@@ -38660,7 +38660,7 @@
         <v>25.6</v>
       </c>
       <c r="D98" s="25">
-        <v>0.36799999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E98" s="25">
         <v>0.82599999999999996</v>
@@ -38669,10 +38669,10 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="G98" s="25">
-        <v>0.62</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H98" s="25">
-        <v>8.4000000000000005E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I98" s="25">
         <v>0.748</v>
@@ -38684,7 +38684,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L98" s="25">
-        <v>0.33800000000000002</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M98" s="25">
         <v>0.84599999999999997</v>
@@ -38704,7 +38704,7 @@
         <v>25.6</v>
       </c>
       <c r="D99" s="25">
-        <v>0.38300000000000001</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E99" s="25">
         <v>0.82499999999999996</v>
@@ -38713,10 +38713,10 @@
         <v>0.75800000000000001</v>
       </c>
       <c r="G99" s="25">
-        <v>0.626</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H99" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I99" s="25">
         <v>0.747</v>
@@ -38728,7 +38728,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L99" s="25">
-        <v>0.35399999999999998</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M99" s="25">
         <v>0.84499999999999997</v>
@@ -38748,7 +38748,7 @@
         <v>25.7</v>
       </c>
       <c r="D100" s="25">
-        <v>0.39900000000000002</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E100" s="25">
         <v>0.82399999999999995</v>
@@ -38757,10 +38757,10 @@
         <v>0.75700000000000001</v>
       </c>
       <c r="G100" s="25">
-        <v>0.63300000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H100" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I100" s="25">
         <v>0.747</v>
@@ -38772,7 +38772,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L100" s="25">
-        <v>0.371</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M100" s="25">
         <v>0.84399999999999997</v>
@@ -38792,7 +38792,7 @@
         <v>25.7</v>
       </c>
       <c r="D101" s="25">
-        <v>0.41599999999999998</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E101" s="25">
         <v>0.82399999999999995</v>
@@ -38801,10 +38801,10 @@
         <v>0.75700000000000001</v>
       </c>
       <c r="G101" s="25">
-        <v>0.64</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H101" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I101" s="25">
         <v>0.747</v>
@@ -38816,7 +38816,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L101" s="25">
-        <v>0.56799999999999995</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M101" s="25">
         <v>0.84399999999999997</v>
@@ -38836,7 +38836,7 @@
         <v>25.7</v>
       </c>
       <c r="D102" s="25">
-        <v>0.435</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E102" s="25">
         <v>0.82399999999999995</v>
@@ -38845,10 +38845,10 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="G102" s="25">
-        <v>0.65</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H102" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I102" s="25">
         <v>0.746</v>
@@ -38860,7 +38860,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L102" s="25">
-        <v>0.40400000000000003</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M102" s="25">
         <v>0.84399999999999997</v>
@@ -38880,7 +38880,7 @@
         <v>25.7</v>
       </c>
       <c r="D103" s="25">
-        <v>0.45600000000000002</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E103" s="25">
         <v>0.82299999999999995</v>
@@ -38889,10 +38889,10 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="G103" s="25">
-        <v>0.65500000000000003</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H103" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I103" s="25">
         <v>0.746</v>
@@ -38904,7 +38904,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L103" s="25">
-        <v>0.42099999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M103" s="25">
         <v>0.84299999999999997</v>
@@ -38924,7 +38924,7 @@
         <v>25.8</v>
       </c>
       <c r="D104" s="25">
-        <v>0.47599999999999998</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E104" s="25">
         <v>0.82299999999999995</v>
@@ -38933,10 +38933,10 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="G104" s="25">
-        <v>0.65600000000000003</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H104" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I104" s="25">
         <v>0.745</v>
@@ -38948,7 +38948,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L104" s="25">
-        <v>0.66500000000000004</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M104" s="25">
         <v>0.84299999999999997</v>
@@ -38968,7 +38968,7 @@
         <v>25.8</v>
       </c>
       <c r="D105" s="25">
-        <v>0.5</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E105" s="25">
         <v>0.82299999999999995</v>
@@ -38977,10 +38977,10 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="G105" s="25">
-        <v>0.66200000000000003</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H105" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I105" s="25">
         <v>0.745</v>
@@ -38992,7 +38992,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L105" s="25">
-        <v>0.46200000000000002</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M105" s="25">
         <v>0.84299999999999997</v>
@@ -39012,7 +39012,7 @@
         <v>25.8</v>
       </c>
       <c r="D106" s="25">
-        <v>0.52100000000000002</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E106" s="25">
         <v>0.82199999999999995</v>
@@ -39021,10 +39021,10 @@
         <v>0.754</v>
       </c>
       <c r="G106" s="25">
-        <v>0.66800000000000004</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H106" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I106" s="25">
         <v>0.745</v>
@@ -39036,7 +39036,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L106" s="25">
-        <v>0.47699999999999998</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M106" s="25">
         <v>0.84199999999999997</v>
@@ -39056,7 +39056,7 @@
         <v>25.8</v>
       </c>
       <c r="D107" s="25">
-        <v>0.53300000000000003</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E107" s="25">
         <v>0.82099999999999995</v>
@@ -39065,10 +39065,10 @@
         <v>0.754</v>
       </c>
       <c r="G107" s="25">
-        <v>0.67500000000000004</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H107" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I107" s="25">
         <v>0.74399999999999999</v>
@@ -39080,7 +39080,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L107" s="25">
-        <v>0.5</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M107" s="25">
         <v>0.84199999999999997</v>
@@ -39100,7 +39100,7 @@
         <v>25.7</v>
       </c>
       <c r="D108" s="25">
-        <v>0.54400000000000004</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E108" s="25">
         <v>0.82099999999999995</v>
@@ -39109,10 +39109,10 @@
         <v>0.754</v>
       </c>
       <c r="G108" s="25">
-        <v>0.67800000000000005</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H108" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I108" s="25">
         <v>0.74399999999999999</v>
@@ -39124,7 +39124,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L108" s="25">
-        <v>0.52300000000000002</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M108" s="25">
         <v>0.84099999999999997</v>
@@ -39144,7 +39144,7 @@
         <v>25.7</v>
       </c>
       <c r="D109" s="25">
-        <v>0.55500000000000005</v>
+        <v>9.4E-2</v>
       </c>
       <c r="E109" s="25">
         <v>0.82099999999999995</v>
@@ -39153,10 +39153,10 @@
         <v>0.754</v>
       </c>
       <c r="G109" s="25">
-        <v>0.67900000000000005</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H109" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I109" s="25">
         <v>0.74399999999999999</v>
@@ -39168,7 +39168,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L109" s="25">
-        <v>0.53400000000000003</v>
+        <v>9.4E-2</v>
       </c>
       <c r="M109" s="25">
         <v>0.84099999999999997</v>
@@ -39188,7 +39188,7 @@
         <v>25.6</v>
       </c>
       <c r="D110" s="25">
-        <v>0.56899999999999995</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E110" s="25">
         <v>0.82099999999999995</v>
@@ -39197,10 +39197,10 @@
         <v>0.754</v>
       </c>
       <c r="G110" s="25">
-        <v>0.68</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H110" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I110" s="25">
         <v>0.74299999999999999</v>
@@ -39212,7 +39212,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L110" s="25">
-        <v>0.54500000000000004</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="M110" s="25">
         <v>0.84</v>
@@ -39232,7 +39232,7 @@
         <v>25.6</v>
       </c>
       <c r="D111" s="25">
-        <v>0.58499999999999996</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E111" s="25">
         <v>0.82</v>
@@ -39241,10 +39241,10 @@
         <v>0.753</v>
       </c>
       <c r="G111" s="25">
-        <v>0.68100000000000005</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H111" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I111" s="25">
         <v>0.74299999999999999</v>
@@ -39256,7 +39256,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L111" s="25">
-        <v>0.55900000000000005</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M111" s="25">
         <v>0.84</v>
@@ -39276,7 +39276,7 @@
         <v>25.6</v>
       </c>
       <c r="D112" s="25">
-        <v>0.63700000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E112" s="25">
         <v>0.81899999999999995</v>
@@ -39285,10 +39285,10 @@
         <v>0.753</v>
       </c>
       <c r="G112" s="25">
-        <v>0.68</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H112" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I112" s="25">
         <v>0.74199999999999999</v>
@@ -39300,7 +39300,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L112" s="25">
-        <v>0.57299999999999995</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M112" s="25">
         <v>0.83899999999999997</v>
@@ -39320,7 +39320,7 @@
         <v>25.6</v>
       </c>
       <c r="D113" s="25">
-        <v>0.59099999999999997</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E113" s="25">
         <v>0.81899999999999995</v>
@@ -39329,10 +39329,10 @@
         <v>0.752</v>
       </c>
       <c r="G113" s="25">
-        <v>0.68</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H113" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I113" s="25">
         <v>0.74199999999999999</v>
@@ -39344,7 +39344,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L113" s="25">
-        <v>0.58099999999999996</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M113" s="25">
         <v>0.83899999999999997</v>
@@ -39364,7 +39364,7 @@
         <v>25.5</v>
       </c>
       <c r="D114" s="25">
-        <v>0.59599999999999997</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E114" s="25">
         <v>0.81899999999999995</v>
@@ -39373,10 +39373,10 @@
         <v>0.752</v>
       </c>
       <c r="G114" s="25">
-        <v>0.68</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H114" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I114" s="25">
         <v>0.74199999999999999</v>
@@ -39388,7 +39388,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L114" s="25">
-        <v>0.59099999999999997</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M114" s="25">
         <v>0.83799999999999997</v>
@@ -39408,7 +39408,7 @@
         <v>25.5</v>
       </c>
       <c r="D115" s="25">
-        <v>0.60199999999999998</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E115" s="25">
         <v>0.81799999999999995</v>
@@ -39417,10 +39417,10 @@
         <v>0.752</v>
       </c>
       <c r="G115" s="25">
-        <v>0.68200000000000005</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H115" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I115" s="25">
         <v>0.74099999999999999</v>
@@ -39432,7 +39432,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L115" s="25">
-        <v>0.60299999999999998</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M115" s="25">
         <v>0.83799999999999997</v>
@@ -39452,7 +39452,7 @@
         <v>25.5</v>
       </c>
       <c r="D116" s="25">
-        <v>0.60699999999999998</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E116" s="25">
         <v>0.81699999999999995</v>
@@ -39461,10 +39461,10 @@
         <v>0.75</v>
       </c>
       <c r="G116" s="25">
-        <v>0.68</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H116" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I116" s="25">
         <v>0.74099999999999999</v>
@@ -39476,7 +39476,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L116" s="25">
-        <v>0.60899999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M116" s="25">
         <v>0.83699999999999997</v>
@@ -39496,7 +39496,7 @@
         <v>25.5</v>
       </c>
       <c r="D117" s="25">
-        <v>0.61299999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E117" s="25">
         <v>0.81699999999999995</v>
@@ -39505,10 +39505,10 @@
         <v>0.75</v>
       </c>
       <c r="G117" s="25">
-        <v>0.67900000000000005</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H117" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I117" s="25">
         <v>0.74</v>
@@ -39520,7 +39520,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L117" s="25">
-        <v>0.61299999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M117" s="25">
         <v>0.83699999999999997</v>
@@ -39540,7 +39540,7 @@
         <v>25.5</v>
       </c>
       <c r="D118" s="25">
-        <v>0.61799999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E118" s="25">
         <v>0.81699999999999995</v>
@@ -39549,10 +39549,10 @@
         <v>0.75</v>
       </c>
       <c r="G118" s="25">
-        <v>0.67700000000000005</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H118" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I118" s="25">
         <v>0.74</v>
@@ -39564,7 +39564,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L118" s="25">
-        <v>0.622</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M118" s="25">
         <v>0.83599999999999997</v>
@@ -39584,7 +39584,7 @@
         <v>25.5</v>
       </c>
       <c r="D119" s="25">
-        <v>0.622</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E119" s="25">
         <v>0.81599999999999995</v>
@@ -39593,10 +39593,10 @@
         <v>0.75</v>
       </c>
       <c r="G119" s="25">
-        <v>0.67700000000000005</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H119" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I119" s="25">
         <v>0.74</v>
@@ -39608,7 +39608,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L119" s="25">
-        <v>0.626</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M119" s="25">
         <v>0.83599999999999997</v>
@@ -39628,7 +39628,7 @@
         <v>25.5</v>
       </c>
       <c r="D120" s="25">
-        <v>0.625</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E120" s="25">
         <v>0.81599999999999995</v>
@@ -39637,10 +39637,10 @@
         <v>0.749</v>
       </c>
       <c r="G120" s="25">
-        <v>0.67600000000000005</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H120" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I120" s="25">
         <v>0.73899999999999999</v>
@@ -39652,7 +39652,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L120" s="25">
-        <v>0.63200000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M120" s="25">
         <v>0.83599999999999997</v>
@@ -39672,7 +39672,7 @@
         <v>25.5</v>
       </c>
       <c r="D121" s="25">
-        <v>0.628</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E121" s="25">
         <v>0.81499999999999995</v>
@@ -39681,10 +39681,10 @@
         <v>0.748</v>
       </c>
       <c r="G121" s="25">
-        <v>0.67500000000000004</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H121" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I121" s="25">
         <v>0.73899999999999999</v>
@@ -39696,7 +39696,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L121" s="25">
-        <v>0.63500000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M121" s="25">
         <v>0.83599999999999997</v>
@@ -39716,7 +39716,7 @@
         <v>25.5</v>
       </c>
       <c r="D122" s="25">
-        <v>0.65400000000000003</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E122" s="25">
         <v>0.81499999999999995</v>
@@ -39725,10 +39725,10 @@
         <v>0.748</v>
       </c>
       <c r="G122" s="25">
-        <v>0.67400000000000004</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H122" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I122" s="25">
         <v>0.73899999999999999</v>
@@ -39740,7 +39740,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L122" s="25">
-        <v>0.63700000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M122" s="25">
         <v>0.83399999999999996</v>
@@ -39760,7 +39760,7 @@
         <v>25.4</v>
       </c>
       <c r="D123" s="25">
-        <v>0.63100000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E123" s="25">
         <v>0.81499999999999995</v>
@@ -39769,10 +39769,10 @@
         <v>0.748</v>
       </c>
       <c r="G123" s="25">
-        <v>0.67300000000000004</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H123" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I123" s="25">
         <v>0.73799999999999999</v>
@@ -39784,7 +39784,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="L123" s="25">
-        <v>0.63900000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M123" s="25">
         <v>0.83399999999999996</v>
@@ -39804,7 +39804,7 @@
         <v>25.4</v>
       </c>
       <c r="D124" s="25">
-        <v>0.63100000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E124" s="25">
         <v>0.81399999999999995</v>
@@ -39813,10 +39813,10 @@
         <v>0.747</v>
       </c>
       <c r="G124" s="25">
-        <v>0.67200000000000004</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H124" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I124" s="25">
         <v>0.73799999999999999</v>
@@ -39828,7 +39828,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L124" s="25">
-        <v>0.64100000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M124" s="25">
         <v>0.83399999999999996</v>
@@ -39848,7 +39848,7 @@
         <v>25.4</v>
       </c>
       <c r="D125" s="25">
-        <v>0.63200000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E125" s="25">
         <v>0.81299999999999994</v>
@@ -39857,10 +39857,10 @@
         <v>0.748</v>
       </c>
       <c r="G125" s="25">
-        <v>0.67100000000000004</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H125" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I125" s="25">
         <v>0.73699999999999999</v>
@@ -39872,7 +39872,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L125" s="25">
-        <v>0.64</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M125" s="25">
         <v>0.83299999999999996</v>
@@ -39892,7 +39892,7 @@
         <v>25.5</v>
       </c>
       <c r="D126" s="25">
-        <v>0.64400000000000002</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E126" s="25">
         <v>0.81299999999999994</v>
@@ -39901,10 +39901,10 @@
         <v>0.746</v>
       </c>
       <c r="G126" s="25">
-        <v>0.66900000000000004</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H126" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I126" s="25">
         <v>0.74</v>
@@ -39916,7 +39916,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L126" s="25">
-        <v>0.64</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M126" s="25">
         <v>0.83299999999999996</v>
@@ -39936,7 +39936,7 @@
         <v>25.4</v>
       </c>
       <c r="D127" s="25">
-        <v>0.63100000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E127" s="25">
         <v>0.81299999999999994</v>
@@ -39945,10 +39945,10 @@
         <v>0.747</v>
       </c>
       <c r="G127" s="25">
-        <v>0.66900000000000004</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H127" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I127" s="25">
         <v>0.73699999999999999</v>
@@ -39960,7 +39960,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L127" s="25">
-        <v>0.64100000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M127" s="25">
         <v>0.83199999999999996</v>
@@ -39980,7 +39980,7 @@
         <v>25.4</v>
       </c>
       <c r="D128" s="25">
-        <v>0.63100000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E128" s="25">
         <v>0.81200000000000006</v>
@@ -39989,10 +39989,10 @@
         <v>0.746</v>
       </c>
       <c r="G128" s="25">
-        <v>0.66800000000000004</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H128" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I128" s="25">
         <v>0.73599999999999999</v>
@@ -40004,7 +40004,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L128" s="25">
-        <v>0.64</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M128" s="25">
         <v>0.83099999999999996</v>
@@ -40024,7 +40024,7 @@
         <v>25.3</v>
       </c>
       <c r="D129" s="25">
-        <v>0.63100000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E129" s="25">
         <v>0.81100000000000005</v>
@@ -40033,10 +40033,10 @@
         <v>0.746</v>
       </c>
       <c r="G129" s="25">
-        <v>0.66700000000000004</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H129" s="25">
-        <v>8.3000000000000004E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I129" s="25">
         <v>0.73799999999999999</v>
@@ -40048,7 +40048,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="L129" s="25">
-        <v>0.64</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M129" s="25">
         <v>0.83199999999999996</v>
